--- a/xforms/xlsforms/individual_details.xlsx
+++ b/xforms/xlsforms/individual_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13004" tabRatio="272" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12855" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540">
   <si>
     <t>type</t>
   </si>
@@ -804,6 +804,15 @@
     <t>${isUpdatable}=1 and ${deficiencyCauses}=98</t>
   </si>
   <si>
+    <t>hasFertility</t>
+  </si>
+  <si>
+    <t>43.0 Pretende colher a secção de fecundidade</t>
+  </si>
+  <si>
+    <t>${isUpdatable}=1 and ${gender}='F' and ${age} &gt;= 12</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -816,7 +825,7 @@
     <t>Esta secção apenas deve ser feita uma vez para cada mulher menor de 12 anos de idade.</t>
   </si>
   <si>
-    <t>${isUpdatable}=1 and ${gender}='F' and ${age} &gt;= 12</t>
+    <t>${hasFertility}=1</t>
   </si>
   <si>
     <t>hasPrevPregnancies</t>
@@ -1682,10 +1691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1716,41 +1725,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1767,7 +1751,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1786,15 +1807,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1808,21 +1846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1830,15 +1853,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1852,14 +1869,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1867,7 +1876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1906,13 +1915,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,7 +1963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,7 +1975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,13 +2011,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,7 +2047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,103 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,6 +2309,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2317,15 +2329,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2356,6 +2359,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2373,166 +2391,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2720,7 +2723,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2792,55 +2798,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3252,25 +3255,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:C45"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.4857142857143" customWidth="1"/>
     <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="91.1619047619048" style="64" customWidth="1"/>
-    <col min="4" max="4" width="42.4285714285714" style="64" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="64" customWidth="1"/>
+    <col min="3" max="3" width="91.1619047619048" style="65" customWidth="1"/>
+    <col min="4" max="4" width="42.4285714285714" style="65" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="65" customWidth="1"/>
     <col min="6" max="6" width="41.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="43.8571428571429" style="64" customWidth="1"/>
+    <col min="7" max="7" width="43.8571428571429" style="65" customWidth="1"/>
     <col min="8" max="8" width="45.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="42.1428571428571" customWidth="1"/>
     <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
@@ -3287,3052 +3290,3080 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:18">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:18">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" customHeight="1" spans="1:18">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
     </row>
     <row r="7" customHeight="1" spans="1:18">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
     </row>
     <row r="8" customHeight="1" spans="1:18">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="71"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="68" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="71"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="73" t="s">
+      <c r="B13" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="71"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="71"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="71"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="71"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="71"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="71"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="71"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="71"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
     </row>
     <row r="25" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
     </row>
     <row r="26" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
     </row>
     <row r="27" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
     </row>
     <row r="29" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75" t="s">
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
     </row>
     <row r="30" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79" t="s">
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
     </row>
     <row r="31" s="16" customFormat="1" ht="18.95" customHeight="1" spans="1:18">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75" t="s">
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
     </row>
     <row r="32" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75" t="s">
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
     </row>
     <row r="33" s="16" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75" t="s">
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
     </row>
     <row r="34" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75" t="s">
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
     </row>
     <row r="35" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="81" t="s">
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
     </row>
     <row r="36" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
     </row>
     <row r="37" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75" t="s">
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
     </row>
     <row r="38" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75" t="s">
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
     </row>
     <row r="39" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="81" t="s">
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
     </row>
     <row r="40" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75" t="s">
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
     </row>
     <row r="41" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="81" t="s">
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
     </row>
     <row r="42" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75" t="s">
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
     </row>
     <row r="43" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="81" t="s">
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
     </row>
     <row r="44" s="16" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75" t="s">
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="75" t="s">
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68" t="s">
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81" t="s">
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
     </row>
     <row r="48" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75" t="s">
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
     </row>
     <row r="49" s="62" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79" t="s">
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
     </row>
     <row r="50" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75" t="s">
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
     </row>
     <row r="51" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75" t="s">
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68" t="s">
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="68"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68" t="s">
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68" t="s">
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68" t="s">
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="75" t="s">
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
     </row>
     <row r="57" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75" t="s">
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68" t="s">
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68" t="s">
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
     </row>
     <row r="60" ht="17.1" customHeight="1" spans="1:18">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71" t="s">
+      <c r="E60" s="72"/>
+      <c r="F60" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="G60" s="71" t="s">
+      <c r="G60" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="H60" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68" t="s">
+      <c r="H60" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C61" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68" t="s">
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
     </row>
     <row r="62" ht="15" customHeight="1" spans="1:18">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="71"/>
-      <c r="F62" s="68" t="s">
+      <c r="E62" s="72"/>
+      <c r="F62" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G62" s="71" t="s">
+      <c r="G62" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="H62" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="69" t="s">
+      <c r="H62" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="L62" s="70"/>
-      <c r="M62" s="70"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
-      <c r="R62" s="68"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
     </row>
     <row r="63" ht="17" customHeight="1" spans="1:18">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="71" t="s">
+      <c r="D63" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="71"/>
-      <c r="F63" s="68" t="s">
+      <c r="E63" s="72"/>
+      <c r="F63" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="G63" s="71" t="s">
+      <c r="G63" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="H63" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="69" t="s">
+      <c r="H63" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="L63" s="70"/>
-      <c r="M63" s="70"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
     </row>
     <row r="64" s="16" customFormat="1" ht="17" customHeight="1" spans="1:18">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="78" t="s">
+      <c r="E64" s="79"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="76"/>
     </row>
     <row r="65" ht="18.95" customHeight="1" spans="1:18">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="71" t="s">
+      <c r="C65" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68" t="s">
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="L65" s="70"/>
-      <c r="M65" s="70"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="75" t="s">
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="L66" s="70"/>
-      <c r="M66" s="70"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="68"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
     </row>
     <row r="67" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75" t="s">
+      <c r="D67" s="79"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="L67" s="81"/>
-      <c r="M67" s="81"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="76"/>
+      <c r="O67" s="76"/>
+      <c r="P67" s="76"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="76"/>
     </row>
     <row r="68" s="16" customFormat="1" ht="18" customHeight="1" spans="1:18">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75" t="s">
+      <c r="D68" s="79"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="L68" s="81"/>
-      <c r="M68" s="81"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="75"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="76"/>
+      <c r="O68" s="76"/>
+      <c r="P68" s="76"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="76"/>
     </row>
     <row r="69" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76"/>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A70" s="76" t="s">
+      <c r="A70" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68" t="s">
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="L70" s="70"/>
-      <c r="M70" s="70"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="75" t="s">
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="68"/>
-      <c r="R71" s="68"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="71"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68" t="s">
+      <c r="E72" s="72"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="L72" s="70"/>
-      <c r="M72" s="70"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
-      <c r="Q72" s="68"/>
-      <c r="R72" s="68"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68" t="s">
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="68"/>
-      <c r="R73" s="68"/>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
     </row>
     <row r="74" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68" t="s">
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
-      <c r="R74" s="68"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A75" s="76" t="s">
+      <c r="A75" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="71" t="s">
+      <c r="C75" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68" t="s">
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="68"/>
-    </row>
-    <row r="76" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A76" s="75" t="s">
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="69"/>
+    </row>
+    <row r="76" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
+      <c r="A76" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="78"/>
-      <c r="H76" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75" t="s">
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="L76" s="81"/>
-      <c r="M76" s="81"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="77"/>
+      <c r="R76" s="77"/>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68" t="s">
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="68"/>
-      <c r="O77" s="68"/>
-      <c r="P77" s="68"/>
-      <c r="Q77" s="68"/>
-      <c r="R77" s="68"/>
-    </row>
-    <row r="78" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A78" s="81" t="s">
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+    </row>
+    <row r="78" s="63" customFormat="1" ht="12" customHeight="1" spans="1:18">
+      <c r="A78" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C78" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75" t="s">
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="L78" s="81"/>
-      <c r="M78" s="81"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="75"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77"/>
     </row>
     <row r="79" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="C79" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="D79" s="79"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="76"/>
+      <c r="P79" s="76"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="76"/>
+    </row>
+    <row r="80" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
+      <c r="A80" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="78"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="78"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75" t="s">
+      <c r="B80" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="L79" s="81"/>
-      <c r="M79" s="81"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
-    </row>
-    <row r="80" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A80" s="81" t="s">
+      <c r="C80" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80" s="72"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+    </row>
+    <row r="81" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
+      <c r="A81" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" s="75"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="81"/>
-      <c r="M80" s="81"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="75"/>
-    </row>
-    <row r="81" s="63" customFormat="1" ht="24" spans="1:18">
-      <c r="A81" s="90" t="s">
+      <c r="B81" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="77"/>
+      <c r="R81" s="77"/>
+    </row>
+    <row r="82" s="64" customFormat="1" ht="24" spans="1:18">
+      <c r="A82" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="C81" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="92" t="s">
+      <c r="B82" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="G81" s="94" t="s">
+      <c r="C82" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="H81" s="90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="90" t="s">
+      <c r="D82" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="L81" s="90"/>
-      <c r="M81" s="90"/>
-      <c r="N81" s="90"/>
-      <c r="O81" s="90"/>
-      <c r="P81" s="90"/>
-      <c r="Q81" s="90"/>
-      <c r="R81" s="90"/>
-    </row>
-    <row r="82" s="16" customFormat="1" ht="23" customHeight="1" spans="1:18">
-      <c r="A82" s="81" t="s">
+      <c r="E82" s="92"/>
+      <c r="F82" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="H82" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="L82" s="91"/>
+      <c r="M82" s="91"/>
+      <c r="N82" s="91"/>
+      <c r="O82" s="91"/>
+      <c r="P82" s="91"/>
+      <c r="Q82" s="91"/>
+      <c r="R82" s="91"/>
+    </row>
+    <row r="83" s="63" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A83" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="92" t="s">
+      <c r="B83" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="G82" s="94" t="s">
+      <c r="G83" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="H82" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" s="75"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L82" s="81"/>
-      <c r="M82" s="81"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-    </row>
-    <row r="83" s="16" customFormat="1" ht="24" spans="1:18">
-      <c r="A83" s="81" t="s">
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+    </row>
+    <row r="84" s="63" customFormat="1" ht="24" spans="1:18">
+      <c r="A84" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="G83" s="94" t="s">
+      <c r="B84" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="H83" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-    </row>
-    <row r="84" s="16" customFormat="1" ht="36" spans="1:18">
-      <c r="A84" s="81" t="s">
+      <c r="C84" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="G84" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="77"/>
+    </row>
+    <row r="85" s="63" customFormat="1" ht="36" spans="1:18">
+      <c r="A85" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" s="94" t="s">
+      <c r="B85" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="H84" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L84" s="81"/>
-      <c r="M84" s="81"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-    </row>
-    <row r="85" s="16" customFormat="1" ht="24" spans="1:18">
-      <c r="A85" s="81" t="s">
+      <c r="C85" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G85" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="H85" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+    </row>
+    <row r="86" s="63" customFormat="1" ht="24" spans="1:18">
+      <c r="A86" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="C85" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="G85" s="94" t="s">
+      <c r="B86" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="H85" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" s="75"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75" t="s">
+      <c r="C86" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="L85" s="81"/>
-      <c r="M85" s="81"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-    </row>
-    <row r="86" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A86" s="81" t="s">
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H86" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+    </row>
+    <row r="87" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A87" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="83" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="G86" s="98" t="s">
+      <c r="B87" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="H86" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75" t="s">
+      <c r="C87" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="L86" s="81"/>
-      <c r="M86" s="81"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-    </row>
-    <row r="87" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A87" s="81" t="s">
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="G87" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="H87" s="77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="L87" s="71"/>
+      <c r="M87" s="71"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+    </row>
+    <row r="88" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A88" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="D87" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="E87" s="99"/>
-      <c r="F87" s="100" t="s">
+      <c r="B88" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="G87" s="101" t="s">
+      <c r="C88" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="H87" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-    </row>
-    <row r="88" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A88" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="92" t="s">
+      <c r="D88" s="93" t="s">
         <v>285</v>
-      </c>
-      <c r="C88" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="93" t="s">
-        <v>287</v>
       </c>
       <c r="E88" s="99"/>
       <c r="F88" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G88" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H88" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
-      <c r="K88" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L88" s="81"/>
-      <c r="M88" s="81"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-    </row>
-    <row r="89" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A89" s="81" t="s">
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+    </row>
+    <row r="89" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A89" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="D89" s="83"/>
+      <c r="D89" s="94" t="s">
+        <v>290</v>
+      </c>
       <c r="E89" s="99"/>
       <c r="F89" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G89" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H89" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I89" s="75"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L89" s="81"/>
-      <c r="M89" s="81"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
-    </row>
-    <row r="90" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A90" s="81" t="s">
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+    </row>
+    <row r="90" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A90" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="C90" s="83" t="s">
+      <c r="B90" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="78"/>
+      <c r="C90" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" s="93"/>
       <c r="E90" s="99"/>
       <c r="F90" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G90" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H90" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L90" s="81"/>
-      <c r="M90" s="81"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="75"/>
-    </row>
-    <row r="91" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A91" s="81" t="s">
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L90" s="71"/>
+      <c r="M90" s="71"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="77"/>
+    </row>
+    <row r="91" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A91" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="C91" s="83" t="s">
+      <c r="B91" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="D91" s="78"/>
+      <c r="C91" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="72"/>
       <c r="E91" s="99"/>
       <c r="F91" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G91" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H91" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I91" s="75"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="L91" s="81"/>
-      <c r="M91" s="81"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="75"/>
-    </row>
-    <row r="92" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A92" s="81" t="s">
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
+      <c r="R91" s="77"/>
+    </row>
+    <row r="92" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A92" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="D92" s="78"/>
+      <c r="D92" s="72"/>
       <c r="E92" s="99"/>
       <c r="F92" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G92" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H92" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="L92" s="81"/>
-      <c r="M92" s="81"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="75"/>
-      <c r="Q92" s="75"/>
-      <c r="R92" s="75"/>
-    </row>
-    <row r="93" s="16" customFormat="1" ht="24.75" spans="1:18">
-      <c r="A93" s="81" t="s">
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="77"/>
+    </row>
+    <row r="93" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A93" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="83" t="s">
+      <c r="B93" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="D93" s="78"/>
+      <c r="C93" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="72"/>
       <c r="E93" s="99"/>
       <c r="F93" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G93" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H93" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L93" s="81"/>
-      <c r="M93" s="81"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
-      <c r="Q93" s="75"/>
-      <c r="R93" s="75"/>
-    </row>
-    <row r="94" s="16" customFormat="1" ht="24" spans="1:18">
-      <c r="A94" s="81" t="s">
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="L93" s="71"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="77"/>
+    </row>
+    <row r="94" s="63" customFormat="1" ht="24.75" spans="1:18">
+      <c r="A94" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="C94" s="83" t="s">
+      <c r="B94" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D94" s="78"/>
+      <c r="C94" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="72"/>
       <c r="E94" s="99"/>
       <c r="F94" s="100" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G94" s="101" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H94" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L94" s="81"/>
-      <c r="M94" s="81"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="75"/>
-    </row>
-    <row r="95" s="16" customFormat="1" ht="36" spans="1:18">
-      <c r="A95" s="81" t="s">
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L94" s="71"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="77"/>
+    </row>
+    <row r="95" s="63" customFormat="1" ht="24" spans="1:18">
+      <c r="A95" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="C95" s="81" t="s">
+      <c r="B95" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="D95" s="78"/>
+      <c r="C95" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="72"/>
       <c r="E95" s="99"/>
-      <c r="F95" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="G95" s="94" t="s">
-        <v>303</v>
+      <c r="F95" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="G95" s="101" t="s">
+        <v>287</v>
       </c>
       <c r="H95" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="I95" s="75"/>
-      <c r="J95" s="75"/>
-      <c r="K95" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="L95" s="81"/>
-      <c r="M95" s="81"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="75"/>
-      <c r="Q95" s="75"/>
-      <c r="R95" s="75"/>
-    </row>
-    <row r="96" s="16" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A96" s="87" t="s">
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L95" s="71"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
+      <c r="R95" s="77"/>
+    </row>
+    <row r="96" s="63" customFormat="1" ht="36" spans="1:18">
+      <c r="A96" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="B96" s="75"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="81"/>
-      <c r="M96" s="81"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="75"/>
-      <c r="Q96" s="75"/>
-      <c r="R96" s="75"/>
-    </row>
-    <row r="97" ht="15" customHeight="1" spans="1:18">
-      <c r="A97" s="70" t="s">
+      <c r="C96" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D96" s="72"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="H96" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="77"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="77"/>
+      <c r="Q96" s="77"/>
+      <c r="R96" s="77"/>
+    </row>
+    <row r="97" s="63" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
+      <c r="A97" s="88" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" s="77"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="103"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="71"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="77"/>
+      <c r="O97" s="77"/>
+      <c r="P97" s="77"/>
+      <c r="Q97" s="77"/>
+      <c r="R97" s="77"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:18">
+      <c r="A98" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="D97" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="E97" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="F97" s="68"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="68"/>
-      <c r="L97" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M97" s="70"/>
-      <c r="N97" s="68"/>
-      <c r="O97" s="68"/>
-      <c r="P97" s="68"/>
-      <c r="Q97" s="68"/>
-      <c r="R97" s="68"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:18">
-      <c r="A98" s="70" t="s">
+      <c r="B98" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="69"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" s="71"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:18">
+      <c r="A99" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="D98" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="E98" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="F98" s="68"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="68"/>
-      <c r="L98" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M98" s="70"/>
-      <c r="N98" s="68"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="68"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="68"/>
-    </row>
-    <row r="99" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-    </row>
-    <row r="100" ht="18" customHeight="1"/>
+      <c r="B99" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="69"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="71"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+    </row>
+    <row r="101" ht="18" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.510416666666667" footer="0.510416666666667"/>
@@ -6347,8 +6378,8 @@
   <sheetPr/>
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C51" sqref="A30:C51"/>
     </sheetView>
@@ -6363,7 +6394,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -6374,694 +6405,694 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B5" s="19">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B6" s="19">
         <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B10" s="19">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B11" s="19">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B12" s="19">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B13" s="19">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B14" s="19">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B15" s="19">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B16" s="19">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B17" s="19">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B18" s="19">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B19" s="19">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B20" s="19">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B21" s="19">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B22" s="20">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B23" s="20">
         <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B24" s="19">
         <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:3">
       <c r="A25" s="21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B25" s="22">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A26" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B26" s="24">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A27" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B27" s="24">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A28" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B28" s="24">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A29" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B29" s="25">
         <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="26" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B30" s="27">
         <v>1</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D30" s="29"/>
     </row>
     <row r="31" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A31" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B31" s="27">
         <v>2</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D31" s="31"/>
     </row>
     <row r="32" s="7" customFormat="1" customHeight="1" spans="1:5">
       <c r="A32" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B32" s="20">
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" s="7" customFormat="1" customHeight="1" spans="1:5">
       <c r="A33" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B33" s="20">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A34" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B34" s="31">
         <v>5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D34" s="31"/>
     </row>
     <row r="35" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B35" s="31">
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D35" s="31"/>
     </row>
     <row r="36" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A36" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B36" s="31">
         <v>7</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D36" s="31"/>
     </row>
     <row r="37" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A37" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B37" s="31">
         <v>8</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D37" s="31"/>
     </row>
     <row r="38" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A38" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B38" s="31">
         <v>9</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D38" s="31"/>
     </row>
     <row r="39" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A39" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B39" s="31">
         <v>10</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D39" s="31"/>
     </row>
     <row r="40" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B40" s="31">
         <v>11</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D40" s="31"/>
     </row>
     <row r="41" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A41" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B41" s="31">
         <v>12</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D41" s="31"/>
     </row>
     <row r="42" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A42" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B42" s="31">
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D42" s="31"/>
     </row>
     <row r="43" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A43" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B43" s="31">
         <v>14</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D43" s="31"/>
     </row>
     <row r="44" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A44" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B44" s="31">
         <v>15</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D44" s="31"/>
     </row>
     <row r="45" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A45" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B45" s="31">
         <v>16</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D45" s="31"/>
     </row>
     <row r="46" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A46" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B46" s="31">
         <v>17</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D46" s="31"/>
     </row>
     <row r="47" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A47" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B47" s="31">
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D47" s="31"/>
     </row>
     <row r="48" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A48" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B48" s="31">
         <v>19</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D48" s="31"/>
     </row>
     <row r="49" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A49" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A50" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B50" s="31">
         <v>88</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A51" s="33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B51" s="34">
         <v>99</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A52" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B52" s="25">
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A53" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B53" s="24">
         <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A54" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B54" s="24">
         <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A55" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B55" s="24">
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A56" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B56" s="24">
         <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A57" s="23" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B57" s="25">
         <v>6</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" s="3" customFormat="1" customHeight="1" spans="1:3">
       <c r="A58" s="21" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B58" s="22">
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A59" s="23" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B59" s="24">
         <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A60" s="23" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B60" s="24">
         <v>3</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A61" s="23" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B61" s="24">
         <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A62" s="36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B62" s="37">
         <v>99</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7072,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7083,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7094,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7105,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7116,7 +7147,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7127,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7138,7 +7169,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7149,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7160,7 +7191,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7171,7 +7202,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7182,7 +7213,7 @@
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7193,7 +7224,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7204,7 +7235,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7215,7 +7246,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7223,10 +7254,10 @@
         <v>154</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7237,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7248,7 +7279,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7259,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7270,7 +7301,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7281,7 +7312,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7292,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7303,7 +7334,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7314,7 +7345,7 @@
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7325,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7336,7 +7367,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7347,7 +7378,7 @@
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7358,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7369,7 +7400,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7380,7 +7411,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7388,142 +7419,142 @@
         <v>150</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A93" s="38" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B93" s="39">
         <v>1</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A94" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B94" s="19">
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A95" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B95" s="19">
         <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A96" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B96" s="19">
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A97" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B97" s="19">
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A98" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B98" s="19">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A99" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B99" s="19">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A100" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B100" s="19">
         <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A101" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B101" s="19">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A102" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B102" s="20">
         <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A103" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B103" s="19">
         <v>88</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" s="10" customFormat="1" customHeight="1" spans="1:3">
       <c r="A104" s="40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B104" s="41">
         <v>99</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" s="9" customFormat="1" customHeight="1" spans="1:3">
@@ -7534,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7545,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7556,7 +7587,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7567,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -7578,7 +7609,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" s="11" customFormat="1" customHeight="1" spans="1:3">
@@ -7589,568 +7620,568 @@
         <v>6</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B111" s="19">
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B112" s="19">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B113" s="20">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" s="9" customFormat="1" customHeight="1" spans="1:3">
       <c r="A114" s="38" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B114" s="39">
         <v>1</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A115" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B115" s="19">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A116" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B116" s="19">
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A117" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B117" s="19">
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A118" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B118" s="19">
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A119" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B119" s="19">
         <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A120" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B120" s="19">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A121" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B121" s="19">
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A122" s="44" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B122" s="20">
         <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A123" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B123" s="19">
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A124" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B124" s="19">
         <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A125" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B125" s="19">
         <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A126" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B126" s="19">
         <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A127" s="44" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B127" s="20">
         <v>14</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A128" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B128" s="19">
         <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A129" s="44" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B129" s="20">
         <v>16</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A130" s="44" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B130" s="20">
         <v>17</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A131" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B131" s="19">
         <v>18</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A132" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B132" s="19">
         <v>19</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A133" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B133" s="19">
         <v>20</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A134" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B134" s="19">
         <v>21</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A135" s="40" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B135" s="19">
         <v>22</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A136" s="44" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B136" s="20">
         <v>23</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" s="11" customFormat="1" customHeight="1" spans="1:3">
       <c r="A137" s="42" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B138" s="19">
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B139" s="19">
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B140" s="19">
         <v>3</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B141" s="19">
         <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B142" s="19">
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B143" s="19">
         <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B144" s="19">
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B145" s="19">
         <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A146" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B146" s="20">
         <v>9</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B147" s="19">
         <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B148" s="19">
         <v>11</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B149" s="19">
         <v>12</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B150" s="19">
         <v>13</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B151" s="20">
         <v>14</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B152" s="19">
         <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B153" s="19">
         <v>16</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A154" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B154" s="20">
         <v>17</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B155" s="19">
         <v>18</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B156" s="19">
         <v>19</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B157" s="19">
         <v>20</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B158" s="19">
         <v>21</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B159" s="19">
         <v>22</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A160" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B160" s="20">
         <v>23</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" s="9" customFormat="1" customHeight="1" spans="1:3">
@@ -8161,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8172,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8183,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8194,7 +8225,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8205,7 +8236,7 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8216,7 +8247,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8227,7 +8258,7 @@
         <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8238,7 +8269,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -8249,7 +8280,7 @@
         <v>9</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" s="11" customFormat="1" customHeight="1" spans="1:3">
@@ -8257,274 +8288,274 @@
         <v>233</v>
       </c>
       <c r="B171" s="45" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B172" s="19">
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B173" s="19">
         <v>2</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B174" s="19">
         <v>3</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B175" s="19">
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B176" s="19">
         <v>5</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B177" s="19">
         <v>6</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B178" s="32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A179" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B179" s="24">
         <v>1</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A180" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B180" s="24">
         <v>2</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A181" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B181" s="24">
         <v>3</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A182" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B182" s="24">
         <v>4</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A183" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B183" s="24">
         <v>5</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A184" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B184" s="24">
         <v>6</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A185" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B185" s="24">
         <v>7</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B186" s="46" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B187" s="19">
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B188" s="19">
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B189" s="19">
         <v>3</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B190" s="19">
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B191" s="19">
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B192" s="20">
         <v>98</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B193" s="19">
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B194" s="19">
         <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B195" s="19">
         <v>99</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" s="12" customFormat="1" customHeight="1" spans="1:3">
@@ -8535,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -8546,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" s="13" customFormat="1" customHeight="1" spans="1:3">
@@ -8557,139 +8588,139 @@
         <v>3</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" s="12" customFormat="1" customHeight="1" spans="1:3">
       <c r="A199" s="47" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B199" s="48">
         <v>1</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A200" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B200" s="20">
         <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A201" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B201" s="20">
         <v>3</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A202" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B202" s="20">
         <v>4</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A203" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B203" s="20">
         <v>5</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A204" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B204" s="20">
         <v>6</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A205" s="44" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B205" s="20">
         <v>7</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" s="14" customFormat="1" customHeight="1" spans="1:3">
       <c r="A206" s="50" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B206" s="51">
         <v>98</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A207" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B207" s="24">
         <v>1</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A208" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B208" s="24">
         <v>2</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A209" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B209" s="24">
         <v>3</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A210" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B210" s="24">
         <v>4</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" s="12" customFormat="1" customHeight="1" spans="1:3">
@@ -8700,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212" s="13" customFormat="1" customHeight="1" spans="1:3">
@@ -8711,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="213" s="13" customFormat="1" customHeight="1" spans="1:3">
@@ -8722,7 +8753,7 @@
         <v>88</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" s="14" customFormat="1" customHeight="1" spans="1:3">
@@ -8733,128 +8764,128 @@
         <v>99</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A215" s="23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B215" s="25">
         <v>1</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A216" s="23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B216" s="24">
         <v>2</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A217" s="23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B217" s="24">
         <v>88</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" s="8" customFormat="1" customHeight="1" spans="1:3">
       <c r="A218" s="36" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B218" s="37">
         <v>99</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A219" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B219" s="24">
         <v>1</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="220" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A220" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B220" s="24">
         <v>2</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="221" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A221" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B221" s="24">
         <v>3</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="222" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A222" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B222" s="24">
         <v>4</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223" s="12" customFormat="1" customHeight="1" spans="1:3">
       <c r="A223" s="47" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B223" s="48">
         <v>1</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A224" s="44" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B224" s="20">
         <v>2</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" s="13" customFormat="1" customHeight="1" spans="1:3">
       <c r="A225" s="44" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B225" s="49">
         <v>99</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" s="12" customFormat="1" customHeight="1" spans="1:3">
@@ -8865,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" s="13" customFormat="1" customHeight="1" spans="1:3">
@@ -8876,40 +8907,40 @@
         <v>2</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="228" s="12" customFormat="1" customHeight="1" spans="1:3">
       <c r="A228" s="47" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B228" s="48">
         <v>1</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A229" s="44" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B229" s="20">
         <v>2</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" s="14" customFormat="1" customHeight="1" spans="1:3">
       <c r="A230" s="50" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B230" s="52">
         <v>3</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -8920,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -8931,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" customHeight="1" spans="1:3">
@@ -8942,348 +8973,348 @@
         <v>3</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" s="12" customFormat="1" customHeight="1" spans="1:3">
       <c r="A234" s="47" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B234" s="48">
         <v>1</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="235" s="13" customFormat="1" customHeight="1" spans="1:3">
       <c r="A235" s="44" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B235" s="49">
         <v>2</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" s="15" customFormat="1" customHeight="1" spans="1:3">
       <c r="A236" s="53" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B236" s="54">
         <v>1</v>
       </c>
       <c r="C236" s="55" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A237" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B237" s="57">
         <v>2</v>
       </c>
       <c r="C237" s="58" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A238" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B238" s="57">
         <v>3</v>
       </c>
       <c r="C238" s="58" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A239" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B239" s="57">
         <v>4</v>
       </c>
       <c r="C239" s="58" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="240" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A240" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B240" s="57">
         <v>5</v>
       </c>
       <c r="C240" s="58" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="241" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A241" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B241" s="57">
         <v>6</v>
       </c>
       <c r="C241" s="58" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A242" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B242" s="57">
         <v>7</v>
       </c>
       <c r="C242" s="58" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="243" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A243" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B243" s="57">
         <v>8</v>
       </c>
       <c r="C243" s="58" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="244" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A244" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B244" s="57">
         <v>9</v>
       </c>
       <c r="C244" s="58" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="245" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A245" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B245" s="57">
         <v>10</v>
       </c>
       <c r="C245" s="58" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A246" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B246" s="57">
         <v>11</v>
       </c>
       <c r="C246" s="58" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A247" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B247" s="57">
         <v>12</v>
       </c>
       <c r="C247" s="58" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A248" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B248" s="57">
         <v>13</v>
       </c>
       <c r="C248" s="58" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A249" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B249" s="57">
         <v>14</v>
       </c>
       <c r="C249" s="58" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A250" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B250" s="57">
         <v>15</v>
       </c>
       <c r="C250" s="58" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A251" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B251" s="57">
         <v>16</v>
       </c>
       <c r="C251" s="58" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A252" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B252" s="57">
         <v>17</v>
       </c>
       <c r="C252" s="58" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="253" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A253" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B253" s="57">
         <v>18</v>
       </c>
       <c r="C253" s="58" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="254" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A254" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B254" s="57">
         <v>19</v>
       </c>
       <c r="C254" s="58" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A255" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B255" s="57">
         <v>20</v>
       </c>
       <c r="C255" s="58" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A256" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B256" s="57">
         <v>21</v>
       </c>
       <c r="C256" s="58" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="257" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A257" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B257" s="57">
         <v>22</v>
       </c>
       <c r="C257" s="58" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A258" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B258" s="57">
         <v>23</v>
       </c>
       <c r="C258" s="58" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A259" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B259" s="57">
         <v>24</v>
       </c>
       <c r="C259" s="58" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A260" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B260" s="57">
         <v>25</v>
       </c>
       <c r="C260" s="58" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A261" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B261" s="57">
         <v>26</v>
       </c>
       <c r="C261" s="58" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A262" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B262" s="57">
         <v>27</v>
       </c>
       <c r="C262" s="58" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" s="16" customFormat="1" customHeight="1" spans="1:3">
       <c r="A263" s="56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B263" s="57">
         <v>28</v>
       </c>
       <c r="C263" s="58" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" s="17" customFormat="1" customHeight="1" spans="1:3">
       <c r="A264" s="59" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B264" s="60">
         <v>98</v>
       </c>
       <c r="C264" s="61" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -9313,24 +9344,24 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:3">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/individual_details.xlsx
+++ b/xforms/xlsforms/individual_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28399" windowHeight="13004" tabRatio="272"/>
+    <workbookView windowWidth="20385" windowHeight="8430" tabRatio="272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="B75" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596">
   <si>
     <t>type</t>
   </si>
@@ -1110,6 +1110,9 @@
   </si>
   <si>
     <t>Não esta presente</t>
+  </si>
+  <si>
+    <t>Deficiente Visual</t>
   </si>
   <si>
     <t>Recusa</t>
@@ -1885,10 +1888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1927,31 +1930,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1965,8 +1966,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1988,10 +1990,56 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2010,43 +2058,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2055,16 +2066,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2121,7 +2124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,7 +2136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,13 +2160,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,19 +2220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,67 +2244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2277,25 +2268,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,26 +2578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2610,15 +2598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2672,148 +2651,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3608,36 +3611,36 @@
   <sheetPr/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.9903846153846" customWidth="1"/>
-    <col min="2" max="2" width="27.1442307692308" customWidth="1"/>
-    <col min="3" max="3" width="50.9038461538462" style="86" customWidth="1"/>
-    <col min="4" max="4" width="42.4326923076923" style="86" customWidth="1"/>
-    <col min="5" max="5" width="26.4326923076923" style="86" customWidth="1"/>
-    <col min="6" max="6" width="41.2884615384615" customWidth="1"/>
-    <col min="7" max="7" width="43.8557692307692" style="86" customWidth="1"/>
-    <col min="8" max="8" width="45.8557692307692" customWidth="1"/>
-    <col min="9" max="9" width="42.1442307692308" customWidth="1"/>
-    <col min="10" max="10" width="30.8557692307692" customWidth="1"/>
-    <col min="11" max="11" width="96.3653846153846" customWidth="1"/>
-    <col min="12" max="12" width="50.4326923076923" customWidth="1"/>
-    <col min="13" max="13" width="44.1442307692308" customWidth="1"/>
-    <col min="14" max="14" width="12.4326923076923" customWidth="1"/>
-    <col min="15" max="15" width="15.7115384615385" customWidth="1"/>
+    <col min="1" max="1" width="29.9904761904762" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="50.9047619047619" style="86" customWidth="1"/>
+    <col min="4" max="4" width="42.4285714285714" style="86" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="86" customWidth="1"/>
+    <col min="6" max="6" width="41.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="43.8571428571429" style="86" customWidth="1"/>
+    <col min="8" max="8" width="45.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="42.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="96.3619047619048" customWidth="1"/>
+    <col min="12" max="12" width="50.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="44.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="12.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="15.7142857142857" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.7115384615385" customWidth="1"/>
-    <col min="18" max="18" width="13.8557692307692" customWidth="1"/>
-    <col min="19" max="19" width="20.1442307692308" customWidth="1"/>
-    <col min="20" max="20" width="21.1442307692308" customWidth="1"/>
+    <col min="17" max="17" width="13.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="13.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="20.1428571428571" customWidth="1"/>
+    <col min="20" max="20" width="21.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -6250,7 +6253,7 @@
       <c r="Q86" s="97"/>
       <c r="R86" s="97"/>
     </row>
-    <row r="87" s="85" customFormat="1" ht="35.65" spans="1:18">
+    <row r="87" s="85" customFormat="1" ht="36" spans="1:18">
       <c r="A87" s="114" t="s">
         <v>25</v>
       </c>
@@ -6320,7 +6323,7 @@
       <c r="Q88" s="97"/>
       <c r="R88" s="97"/>
     </row>
-    <row r="89" s="83" customFormat="1" ht="23.75" spans="1:18">
+    <row r="89" s="83" customFormat="1" ht="24" spans="1:18">
       <c r="A89" s="92" t="s">
         <v>25</v>
       </c>
@@ -6354,7 +6357,7 @@
       <c r="Q89" s="97"/>
       <c r="R89" s="97"/>
     </row>
-    <row r="90" s="83" customFormat="1" ht="35.65" spans="1:18">
+    <row r="90" s="83" customFormat="1" ht="36" spans="1:18">
       <c r="A90" s="92" t="s">
         <v>25</v>
       </c>
@@ -6388,7 +6391,7 @@
       <c r="Q90" s="97"/>
       <c r="R90" s="97"/>
     </row>
-    <row r="91" s="83" customFormat="1" ht="23.75" spans="1:18">
+    <row r="91" s="83" customFormat="1" ht="24" spans="1:18">
       <c r="A91" s="92" t="s">
         <v>25</v>
       </c>
@@ -6422,7 +6425,7 @@
       <c r="Q91" s="97"/>
       <c r="R91" s="97"/>
     </row>
-    <row r="92" s="83" customFormat="1" ht="24.5" spans="1:18">
+    <row r="92" s="83" customFormat="1" ht="24.75" spans="1:18">
       <c r="A92" s="92" t="s">
         <v>25</v>
       </c>
@@ -6456,7 +6459,7 @@
       <c r="Q92" s="97"/>
       <c r="R92" s="97"/>
     </row>
-    <row r="93" s="83" customFormat="1" ht="36.4" spans="1:18">
+    <row r="93" s="83" customFormat="1" ht="36.75" spans="1:18">
       <c r="A93" s="92" t="s">
         <v>25</v>
       </c>
@@ -6492,7 +6495,7 @@
       <c r="Q93" s="97"/>
       <c r="R93" s="97"/>
     </row>
-    <row r="94" s="83" customFormat="1" ht="36.4" spans="1:18">
+    <row r="94" s="83" customFormat="1" ht="36.75" spans="1:18">
       <c r="A94" s="92" t="s">
         <v>25</v>
       </c>
@@ -6528,7 +6531,7 @@
       <c r="Q94" s="97"/>
       <c r="R94" s="97"/>
     </row>
-    <row r="95" s="83" customFormat="1" ht="36.4" spans="1:18">
+    <row r="95" s="83" customFormat="1" ht="36.75" spans="1:18">
       <c r="A95" s="92" t="s">
         <v>25</v>
       </c>
@@ -6562,7 +6565,7 @@
       <c r="Q95" s="97"/>
       <c r="R95" s="97"/>
     </row>
-    <row r="96" s="83" customFormat="1" ht="24.5" spans="1:18">
+    <row r="96" s="83" customFormat="1" ht="24.75" spans="1:18">
       <c r="A96" s="92" t="s">
         <v>25</v>
       </c>
@@ -6596,7 +6599,7 @@
       <c r="Q96" s="97"/>
       <c r="R96" s="97"/>
     </row>
-    <row r="97" s="83" customFormat="1" ht="24.5" spans="1:18">
+    <row r="97" s="83" customFormat="1" ht="24.75" spans="1:18">
       <c r="A97" s="92" t="s">
         <v>25</v>
       </c>
@@ -6630,7 +6633,7 @@
       <c r="Q97" s="97"/>
       <c r="R97" s="97"/>
     </row>
-    <row r="98" s="83" customFormat="1" ht="24.5" spans="1:18">
+    <row r="98" s="83" customFormat="1" ht="24.75" spans="1:18">
       <c r="A98" s="92" t="s">
         <v>25</v>
       </c>
@@ -6664,7 +6667,7 @@
       <c r="Q98" s="97"/>
       <c r="R98" s="97"/>
     </row>
-    <row r="99" s="83" customFormat="1" ht="24.5" spans="1:18">
+    <row r="99" s="83" customFormat="1" ht="24.75" spans="1:18">
       <c r="A99" s="92" t="s">
         <v>25</v>
       </c>
@@ -6698,7 +6701,7 @@
       <c r="Q99" s="97"/>
       <c r="R99" s="97"/>
     </row>
-    <row r="100" s="83" customFormat="1" ht="23.75" spans="1:18">
+    <row r="100" s="83" customFormat="1" ht="24" spans="1:18">
       <c r="A100" s="92" t="s">
         <v>25</v>
       </c>
@@ -6732,7 +6735,7 @@
       <c r="Q100" s="97"/>
       <c r="R100" s="97"/>
     </row>
-    <row r="101" s="83" customFormat="1" ht="35.65" spans="1:18">
+    <row r="101" s="83" customFormat="1" ht="36" spans="1:18">
       <c r="A101" s="92" t="s">
         <v>25</v>
       </c>
@@ -6875,23 +6878,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7115384615385" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.7142857142857" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.1442307692308" customWidth="1"/>
+    <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2884615384615" customWidth="1"/>
+    <col min="3" max="3" width="24.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7115384615385" customWidth="1"/>
-    <col min="6" max="6" width="6.56730769230769" customWidth="1"/>
-    <col min="7" max="7" width="26.1442307692308" customWidth="1"/>
+    <col min="5" max="5" width="37.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="6.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
@@ -6999,705 +7002,705 @@
         <v>337</v>
       </c>
       <c r="B10" s="20">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B11" s="19"/>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="20">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>342</v>
-      </c>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B12" s="19"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45" t="s">
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="43" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
         <v>347</v>
-      </c>
-      <c r="B15" s="22">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="25">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D16" s="26">
-        <v>2</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B17" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="27">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F17" s="41"/>
+        <v>353</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B18" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="28">
-        <v>4</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="D18" s="27">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="50"/>
       <c r="H18" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B19" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="D19" s="27">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="D19" s="28">
+        <v>4</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>357</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="50"/>
       <c r="H19" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B20" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D20" s="27">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>360</v>
+        <v>5</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="50"/>
       <c r="H20" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B21" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="27">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="19">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="D21" s="27">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F21" s="49">
-        <v>2</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="H21" s="19">
-        <v>7</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B22" s="25">
-        <v>8</v>
-      </c>
-      <c r="C22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="27">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F22" s="49">
+        <v>2</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" s="19">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D22" s="27">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="19">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B23" s="25">
-        <v>9</v>
-      </c>
-      <c r="C23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="27">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="19">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="D23" s="27">
-        <v>9</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F23" s="49">
-        <v>3</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="H23" s="19">
-        <v>9</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B24" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" s="27">
+        <v>9</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="49">
+        <v>3</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24" s="19">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="D24" s="26">
-        <v>10</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="19">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B25" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="26">
+        <v>10</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D25" s="27">
-        <v>11</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F25" s="49">
-        <v>4</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="H25" s="19">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B26" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="27">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F26" s="49">
+        <v>4</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="19">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D26" s="26">
-        <v>12</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="19">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B27" s="25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="D27" s="27">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="D27" s="26">
+        <v>12</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>373</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="50"/>
       <c r="H27" s="19">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="25">
         <v>13</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="C28" s="23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="28" s="3" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A28" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="D28" s="27">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="19">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A29" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="25">
         <v>14</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="C29" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="27">
         <v>14</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="F28" s="49">
+      <c r="E29" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="49">
         <v>5</v>
       </c>
-      <c r="G28" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="G29" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="H29" s="20">
         <v>14</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B29" s="25">
-        <v>15</v>
-      </c>
-      <c r="C29" s="23" t="s">
+      <c r="I29" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="D29" s="26">
-        <v>15</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="20">
-        <v>98</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B30" s="25">
+        <v>15</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="26">
+        <v>15</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="20">
+        <v>98</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="25">
         <v>16</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="C31" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="27">
         <v>16</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="F30" s="49">
+      <c r="E31" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F31" s="49">
         <v>6</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G31" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="19">
         <v>88</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" s="25">
-        <v>17</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="26">
-        <v>17</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="F31" s="49">
-        <v>7</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B32" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="27">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="26">
+        <v>17</v>
+      </c>
+      <c r="E32" s="52" t="s">
         <v>382</v>
       </c>
       <c r="F32" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B33" s="25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="D33" s="28">
-        <v>19</v>
-      </c>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="27">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
         <v>383</v>
       </c>
       <c r="F33" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B34" s="25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D34" s="27">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>369</v>
+        <v>384</v>
+      </c>
+      <c r="D34" s="28">
+        <v>19</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>384</v>
       </c>
       <c r="F34" s="49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B35" s="25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D35" s="27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F35" s="49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B36" s="25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" s="27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F36" s="49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" s="22">
-        <v>23</v>
+        <v>348</v>
+      </c>
+      <c r="B37" s="25">
+        <v>22</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="24">
-        <v>23</v>
+        <v>374</v>
+      </c>
+      <c r="D37" s="27">
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F37" s="49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" s="22">
-        <v>98</v>
-      </c>
-      <c r="C38" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="D38" s="30">
-        <v>98</v>
-      </c>
-      <c r="E38" s="48" t="s">
+      <c r="D38" s="24">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
         <v>385</v>
       </c>
       <c r="F38" s="49">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B39" s="22">
+        <v>98</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" s="30">
+        <v>98</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="F39" s="49">
+        <v>98</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="22">
         <v>88</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C40" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D40" s="31">
         <v>88</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F40" s="54">
         <v>88</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G40" s="55" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B41" s="20">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>387</v>
-      </c>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B41" s="19"/>
       <c r="D41" s="19"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B42" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>388</v>
@@ -7706,10 +7709,10 @@
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B43" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>389</v>
@@ -7718,10 +7721,10 @@
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>390</v>
@@ -7730,38 +7733,38 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A45" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="20">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="20">
+        <v>98</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B45" s="20">
-        <v>98</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B47" s="20">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>392</v>
-      </c>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B47" s="19"/>
       <c r="D47" s="19"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>393</v>
@@ -7770,123 +7773,122 @@
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B49" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>394</v>
       </c>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="2:4">
-      <c r="B50" s="19"/>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B50" s="20">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" s="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A51" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B51" s="33">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A52" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="B52" s="35">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" s="35"/>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="2:4">
+      <c r="B51" s="19"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" s="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A52" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52" s="33">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A53" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B53" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="D53" s="35"/>
     </row>
     <row r="54" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A54" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B54" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D54" s="35"/>
     </row>
-    <row r="55" s="6" customFormat="1" customHeight="1" spans="1:4">
+    <row r="55" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A55" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="B55" s="36">
+        <v>396</v>
+      </c>
+      <c r="B55" s="35">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A56" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B56" s="36">
         <v>98</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" s="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A56" s="37" t="s">
+      <c r="C56" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B56" s="38">
-        <v>1</v>
-      </c>
-      <c r="C56" s="39" t="s">
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" s="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A57" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="D56" s="40"/>
-    </row>
-    <row r="57" s="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A57" s="41" t="s">
-        <v>399</v>
-      </c>
       <c r="B57" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="D57" s="42"/>
-    </row>
-    <row r="58" s="8" customFormat="1" customHeight="1" spans="1:5">
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A58" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B58" s="20">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="38">
+        <v>2</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A59" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B59" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>403</v>
@@ -7894,24 +7896,25 @@
       <c r="D59" s="20"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" s="8" customFormat="1" customHeight="1" spans="1:4">
+    <row r="60" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A60" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B60" s="42">
-        <v>5</v>
-      </c>
-      <c r="C60" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B60" s="20">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D60" s="42"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A61" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B61" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>405</v>
@@ -7920,10 +7923,10 @@
     </row>
     <row r="62" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A62" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B62" s="42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>406</v>
@@ -7932,10 +7935,10 @@
     </row>
     <row r="63" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A63" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>407</v>
@@ -7944,10 +7947,10 @@
     </row>
     <row r="64" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A64" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B64" s="42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>408</v>
@@ -7956,10 +7959,10 @@
     </row>
     <row r="65" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A65" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B65" s="42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>409</v>
@@ -7968,10 +7971,10 @@
     </row>
     <row r="66" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A66" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B66" s="42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>410</v>
@@ -7980,10 +7983,10 @@
     </row>
     <row r="67" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" s="42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>411</v>
@@ -7992,10 +7995,10 @@
     </row>
     <row r="68" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A68" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B68" s="42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>412</v>
@@ -8004,10 +8007,10 @@
     </row>
     <row r="69" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A69" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" s="42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>413</v>
@@ -8016,10 +8019,10 @@
     </row>
     <row r="70" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A70" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B70" s="42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>414</v>
@@ -8028,10 +8031,10 @@
     </row>
     <row r="71" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A71" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B71" s="42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>415</v>
@@ -8040,10 +8043,10 @@
     </row>
     <row r="72" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A72" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B72" s="42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>416</v>
@@ -8052,10 +8055,10 @@
     </row>
     <row r="73" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A73" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" s="42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>417</v>
@@ -8064,10 +8067,10 @@
     </row>
     <row r="74" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A74" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B74" s="42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>418</v>
@@ -8076,70 +8079,70 @@
     </row>
     <row r="75" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A75" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B75" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B75" s="42">
+        <v>19</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="D75" s="42"/>
     </row>
     <row r="76" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A76" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B76" s="42">
+        <v>400</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" s="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A77" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="42">
         <v>88</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D76" s="42"/>
-    </row>
-    <row r="77" s="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A77" s="57" t="s">
-        <v>399</v>
-      </c>
-      <c r="B77" s="58">
+      <c r="D77" s="42"/>
+    </row>
+    <row r="78" s="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A78" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="B78" s="58">
         <v>99</v>
       </c>
-      <c r="C77" s="59" t="s">
-        <v>420</v>
-      </c>
-      <c r="D77" s="42"/>
-    </row>
-    <row r="78" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A78" s="34" t="s">
+      <c r="C78" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="36">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A79" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="D78" s="36"/>
-    </row>
-    <row r="79" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A79" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="B79" s="35">
-        <v>2</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="36">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D79" s="35"/>
+      <c r="D79" s="36"/>
     </row>
     <row r="80" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A80" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B80" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>424</v>
@@ -8148,10 +8151,10 @@
     </row>
     <row r="81" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A81" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B81" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>425</v>
@@ -8160,58 +8163,58 @@
     </row>
     <row r="82" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A82" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B82" s="35">
+        <v>4</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D82" s="35"/>
+    </row>
+    <row r="83" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A83" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="35">
         <v>5</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D82" s="35"/>
-    </row>
-    <row r="83" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A83" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="B83" s="36">
+      <c r="C83" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" s="35"/>
+    </row>
+    <row r="84" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A84" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B84" s="36">
         <v>6</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D83" s="36"/>
-    </row>
-    <row r="84" s="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A84" s="32" t="s">
+      <c r="C84" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B84" s="33">
-        <v>1</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="36"/>
+    </row>
+    <row r="85" s="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A85" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A85" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B85" s="35">
-        <v>2</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="33">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D85" s="35"/>
+      <c r="D85" s="33"/>
     </row>
     <row r="86" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A86" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B86" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>430</v>
@@ -8220,46 +8223,46 @@
     </row>
     <row r="87" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A87" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B87" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>431</v>
       </c>
       <c r="D87" s="35"/>
     </row>
-    <row r="88" s="9" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A88" s="60" t="s">
-        <v>427</v>
-      </c>
-      <c r="B88" s="61">
+    <row r="88" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A88" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" s="35">
+        <v>4</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D88" s="35"/>
+    </row>
+    <row r="89" s="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A89" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="61">
         <v>99</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D88" s="61"/>
-    </row>
-    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="19">
-        <v>1</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D89" s="19"/>
+      <c r="C89" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D89" s="61"/>
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A90" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B90" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>433</v>
@@ -8271,7 +8274,7 @@
         <v>155</v>
       </c>
       <c r="B91" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>434</v>
@@ -8283,7 +8286,7 @@
         <v>155</v>
       </c>
       <c r="B92" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>435</v>
@@ -8295,7 +8298,7 @@
         <v>155</v>
       </c>
       <c r="B93" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>436</v>
@@ -8307,7 +8310,7 @@
         <v>155</v>
       </c>
       <c r="B94" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>437</v>
@@ -8319,7 +8322,7 @@
         <v>155</v>
       </c>
       <c r="B95" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>438</v>
@@ -8331,7 +8334,7 @@
         <v>155</v>
       </c>
       <c r="B96" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>439</v>
@@ -8343,7 +8346,7 @@
         <v>155</v>
       </c>
       <c r="B97" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>440</v>
@@ -8355,7 +8358,7 @@
         <v>155</v>
       </c>
       <c r="B98" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>441</v>
@@ -8367,7 +8370,7 @@
         <v>155</v>
       </c>
       <c r="B99" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>442</v>
@@ -8379,7 +8382,7 @@
         <v>155</v>
       </c>
       <c r="B100" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>443</v>
@@ -8391,7 +8394,7 @@
         <v>155</v>
       </c>
       <c r="B101" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>444</v>
@@ -8403,7 +8406,7 @@
         <v>155</v>
       </c>
       <c r="B102" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>445</v>
@@ -8414,23 +8417,23 @@
       <c r="A103" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="56" t="s">
-        <v>419</v>
+      <c r="B103" s="19">
+        <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="D103" s="19"/>
     </row>
     <row r="104" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B104" s="19">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="B104" s="56" t="s">
+        <v>420</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="D104" s="19"/>
     </row>
@@ -8439,10 +8442,10 @@
         <v>151</v>
       </c>
       <c r="B105" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D105" s="19"/>
     </row>
@@ -8451,7 +8454,7 @@
         <v>151</v>
       </c>
       <c r="B106" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>434</v>
@@ -8463,7 +8466,7 @@
         <v>151</v>
       </c>
       <c r="B107" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>435</v>
@@ -8475,7 +8478,7 @@
         <v>151</v>
       </c>
       <c r="B108" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>436</v>
@@ -8487,7 +8490,7 @@
         <v>151</v>
       </c>
       <c r="B109" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>437</v>
@@ -8499,7 +8502,7 @@
         <v>151</v>
       </c>
       <c r="B110" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>438</v>
@@ -8511,7 +8514,7 @@
         <v>151</v>
       </c>
       <c r="B111" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>439</v>
@@ -8523,10 +8526,10 @@
         <v>151</v>
       </c>
       <c r="B112" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D112" s="19"/>
     </row>
@@ -8535,10 +8538,10 @@
         <v>151</v>
       </c>
       <c r="B113" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D113" s="19"/>
     </row>
@@ -8547,10 +8550,10 @@
         <v>151</v>
       </c>
       <c r="B114" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D114" s="19"/>
     </row>
@@ -8559,7 +8562,7 @@
         <v>151</v>
       </c>
       <c r="B115" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>449</v>
@@ -8571,7 +8574,7 @@
         <v>151</v>
       </c>
       <c r="B116" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>450</v>
@@ -8583,7 +8586,7 @@
         <v>151</v>
       </c>
       <c r="B117" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>451</v>
@@ -8594,44 +8597,44 @@
       <c r="A118" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="56" t="s">
-        <v>419</v>
+      <c r="B118" s="19">
+        <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="D118" s="19"/>
     </row>
-    <row r="119" s="10" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A119" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="B119" s="62">
-        <v>1</v>
-      </c>
-      <c r="C119" s="10" t="s">
+    <row r="119" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" s="19"/>
+    </row>
+    <row r="120" s="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A120" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="D119" s="62"/>
-    </row>
-    <row r="120" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A120" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="B120" s="19">
-        <v>2</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="62">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D120" s="19"/>
+      <c r="D120" s="62"/>
     </row>
     <row r="121" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A121" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B121" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>455</v>
@@ -8640,10 +8643,10 @@
     </row>
     <row r="122" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A122" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B122" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>456</v>
@@ -8652,10 +8655,10 @@
     </row>
     <row r="123" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A123" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B123" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>457</v>
@@ -8664,10 +8667,10 @@
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A124" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B124" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>458</v>
@@ -8676,10 +8679,10 @@
     </row>
     <row r="125" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A125" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B125" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>459</v>
@@ -8688,10 +8691,10 @@
     </row>
     <row r="126" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A126" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B126" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>460</v>
@@ -8700,10 +8703,10 @@
     </row>
     <row r="127" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A127" s="63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B127" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>461</v>
@@ -8712,70 +8715,70 @@
     </row>
     <row r="128" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A128" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="B128" s="20">
-        <v>98</v>
+        <v>453</v>
+      </c>
+      <c r="B128" s="19">
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="D128" s="19"/>
     </row>
     <row r="129" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A129" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="B129" s="19">
+        <v>453</v>
+      </c>
+      <c r="B129" s="20">
+        <v>98</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A130" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B130" s="19">
         <v>88</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D129" s="19"/>
-    </row>
-    <row r="130" s="11" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A130" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="B130" s="24">
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" s="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A131" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B131" s="24">
         <v>99</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" s="10" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A131" s="44" t="s">
+      <c r="C131" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" s="24"/>
+    </row>
+    <row r="132" s="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A132" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B131" s="62">
-        <v>1</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D131" s="62"/>
-    </row>
-    <row r="132" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A132" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B132" s="19">
-        <v>2</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="B132" s="62">
+        <v>1</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D132" s="19"/>
+      <c r="D132" s="62"/>
     </row>
     <row r="133" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A133" s="63" t="s">
         <v>191</v>
       </c>
       <c r="B133" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>464</v>
@@ -8787,7 +8790,7 @@
         <v>191</v>
       </c>
       <c r="B134" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>465</v>
@@ -8799,91 +8802,91 @@
         <v>191</v>
       </c>
       <c r="B135" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>466</v>
       </c>
       <c r="D135" s="19"/>
     </row>
-    <row r="136" s="12" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A136" s="64" t="s">
+    <row r="136" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A136" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B136" s="31">
+      <c r="B136" s="19">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" s="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A137" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="31">
         <v>6</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D136" s="31"/>
-    </row>
-    <row r="137" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A137" s="2" t="s">
+      <c r="C137" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B137" s="19">
-        <v>1</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D137" s="19"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B138" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="D138" s="19"/>
     </row>
     <row r="139" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B139" s="20">
+        <v>469</v>
+      </c>
+      <c r="B139" s="19">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B140" s="20">
         <v>3</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D139" s="19"/>
-    </row>
-    <row r="140" s="10" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A140" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="B140" s="62">
-        <v>1</v>
-      </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" s="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A141" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="D140" s="62"/>
-    </row>
-    <row r="141" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A141" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="B141" s="19">
-        <v>2</v>
-      </c>
-      <c r="C141" s="2" t="s">
+      <c r="B141" s="62">
+        <v>1</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D141" s="19"/>
+      <c r="D141" s="62"/>
     </row>
     <row r="142" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A142" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B142" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>473</v>
@@ -8892,10 +8895,10 @@
     </row>
     <row r="143" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A143" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B143" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>474</v>
@@ -8904,10 +8907,10 @@
     </row>
     <row r="144" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A144" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B144" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>475</v>
@@ -8916,10 +8919,10 @@
     </row>
     <row r="145" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A145" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B145" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>476</v>
@@ -8928,10 +8931,10 @@
     </row>
     <row r="146" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A146" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B146" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>477</v>
@@ -8940,10 +8943,10 @@
     </row>
     <row r="147" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A147" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B147" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>478</v>
@@ -8951,35 +8954,35 @@
       <c r="D147" s="19"/>
     </row>
     <row r="148" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A148" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B148" s="20">
+      <c r="A148" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B148" s="19">
+        <v>8</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A149" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B149" s="20">
         <v>9</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D148" s="19"/>
-    </row>
-    <row r="149" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A149" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="B149" s="19">
-        <v>10</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>480</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A150" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B150" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>481</v>
@@ -8988,10 +8991,10 @@
     </row>
     <row r="151" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A151" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B151" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>482</v>
@@ -9000,10 +9003,10 @@
     </row>
     <row r="152" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A152" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B152" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>483</v>
@@ -9011,47 +9014,47 @@
       <c r="D152" s="19"/>
     </row>
     <row r="153" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A153" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B153" s="20">
+      <c r="A153" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B153" s="19">
+        <v>13</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A154" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B154" s="20">
         <v>14</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D153" s="19"/>
-    </row>
-    <row r="154" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A154" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="B154" s="19">
+      <c r="C154" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A155" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B155" s="19">
         <v>15</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D154" s="19"/>
-    </row>
-    <row r="155" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A155" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B155" s="20">
-        <v>16</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>486</v>
       </c>
       <c r="D155" s="19"/>
     </row>
     <row r="156" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A156" s="65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B156" s="20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>487</v>
@@ -9059,23 +9062,23 @@
       <c r="D156" s="19"/>
     </row>
     <row r="157" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A157" s="63" t="s">
-        <v>470</v>
-      </c>
-      <c r="B157" s="19">
-        <v>18</v>
-      </c>
-      <c r="C157" s="2" t="s">
+      <c r="A157" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B157" s="20">
+        <v>17</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>488</v>
       </c>
       <c r="D157" s="19"/>
     </row>
     <row r="158" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A158" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B158" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>489</v>
@@ -9084,10 +9087,10 @@
     </row>
     <row r="159" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A159" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B159" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>490</v>
@@ -9096,10 +9099,10 @@
     </row>
     <row r="160" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A160" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B160" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>491</v>
@@ -9108,10 +9111,10 @@
     </row>
     <row r="161" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A161" s="63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B161" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>492</v>
@@ -9119,47 +9122,47 @@
       <c r="D161" s="19"/>
     </row>
     <row r="162" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A162" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B162" s="20">
+      <c r="A162" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B162" s="19">
+        <v>22</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D162" s="19"/>
+    </row>
+    <row r="163" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A163" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B163" s="20">
         <v>23</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D162" s="19"/>
-    </row>
-    <row r="163" s="12" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A163" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="B163" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D163" s="31"/>
-    </row>
-    <row r="164" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A164" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B164" s="19">
-        <v>1</v>
-      </c>
-      <c r="C164" s="2" t="s">
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" s="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A164" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="D164" s="19"/>
+      <c r="B164" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D164" s="31"/>
     </row>
     <row r="165" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B165" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>472</v>
@@ -9168,10 +9171,10 @@
     </row>
     <row r="166" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B166" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>473</v>
@@ -9180,10 +9183,10 @@
     </row>
     <row r="167" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B167" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>474</v>
@@ -9192,10 +9195,10 @@
     </row>
     <row r="168" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B168" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>475</v>
@@ -9204,10 +9207,10 @@
     </row>
     <row r="169" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B169" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>476</v>
@@ -9216,10 +9219,10 @@
     </row>
     <row r="170" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B170" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>477</v>
@@ -9228,10 +9231,10 @@
     </row>
     <row r="171" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B171" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>478</v>
@@ -9239,35 +9242,35 @@
       <c r="D171" s="19"/>
     </row>
     <row r="172" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A172" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B172" s="20">
+      <c r="A172" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B172" s="19">
+        <v>8</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D172" s="19"/>
+    </row>
+    <row r="173" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="20">
         <v>9</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D172" s="19"/>
-    </row>
-    <row r="173" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A173" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B173" s="19">
-        <v>10</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>480</v>
       </c>
       <c r="D173" s="19"/>
     </row>
     <row r="174" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B174" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>481</v>
@@ -9276,10 +9279,10 @@
     </row>
     <row r="175" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B175" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>482</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="176" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B176" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>483</v>
@@ -9299,35 +9302,35 @@
       <c r="D176" s="19"/>
     </row>
     <row r="177" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A177" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B177" s="20">
+      <c r="A177" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B177" s="19">
+        <v>13</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D177" s="19"/>
+    </row>
+    <row r="178" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B178" s="20">
         <v>14</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="D177" s="19"/>
-    </row>
-    <row r="178" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A178" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B178" s="19">
-        <v>15</v>
-      </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>485</v>
       </c>
       <c r="D178" s="19"/>
     </row>
     <row r="179" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B179" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>486</v>
@@ -9335,35 +9338,35 @@
       <c r="D179" s="19"/>
     </row>
     <row r="180" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A180" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B180" s="20">
+      <c r="A180" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B180" s="19">
+        <v>16</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D180" s="19"/>
+    </row>
+    <row r="181" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" s="20">
         <v>17</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D180" s="19"/>
-    </row>
-    <row r="181" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A181" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B181" s="19">
-        <v>18</v>
-      </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>488</v>
       </c>
       <c r="D181" s="19"/>
     </row>
     <row r="182" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B182" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>489</v>
@@ -9372,10 +9375,10 @@
     </row>
     <row r="183" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B183" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>490</v>
@@ -9384,10 +9387,10 @@
     </row>
     <row r="184" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B184" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>491</v>
@@ -9396,10 +9399,10 @@
     </row>
     <row r="185" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B185" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>492</v>
@@ -9407,59 +9410,59 @@
       <c r="D185" s="19"/>
     </row>
     <row r="186" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A186" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B186" s="20">
+      <c r="A186" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B186" s="19">
+        <v>22</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D186" s="19"/>
+    </row>
+    <row r="187" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A187" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B187" s="20">
         <v>23</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C187" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D187" s="19"/>
+    </row>
+    <row r="188" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A188" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D186" s="19"/>
-    </row>
-    <row r="187" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A187" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B187" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D187" s="19"/>
-    </row>
-    <row r="188" s="10" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A188" s="44" t="s">
+      <c r="B188" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D188" s="19"/>
+    </row>
+    <row r="189" s="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A189" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="B188" s="62">
-        <v>1</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="D188" s="62"/>
-    </row>
-    <row r="189" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A189" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="B189" s="19">
-        <v>2</v>
-      </c>
-      <c r="C189" s="2" t="s">
+      <c r="B189" s="62">
+        <v>1</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D189" s="19"/>
+      <c r="D189" s="62"/>
     </row>
     <row r="190" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A190" s="63" t="s">
         <v>252</v>
       </c>
       <c r="B190" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>498</v>
@@ -9471,7 +9474,7 @@
         <v>252</v>
       </c>
       <c r="B191" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>499</v>
@@ -9483,7 +9486,7 @@
         <v>252</v>
       </c>
       <c r="B192" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>500</v>
@@ -9495,7 +9498,7 @@
         <v>252</v>
       </c>
       <c r="B193" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>501</v>
@@ -9507,7 +9510,7 @@
         <v>252</v>
       </c>
       <c r="B194" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>502</v>
@@ -9519,7 +9522,7 @@
         <v>252</v>
       </c>
       <c r="B195" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>503</v>
@@ -9531,43 +9534,43 @@
         <v>252</v>
       </c>
       <c r="B196" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>504</v>
       </c>
       <c r="D196" s="19"/>
     </row>
-    <row r="197" s="12" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A197" s="64" t="s">
+    <row r="197" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A197" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="B197" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D197" s="31"/>
-    </row>
-    <row r="198" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A198" s="2" t="s">
+      <c r="B197" s="19">
+        <v>9</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B198" s="19">
-        <v>1</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D198" s="19"/>
+      <c r="D197" s="19"/>
+    </row>
+    <row r="198" s="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A198" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B198" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D198" s="31"/>
     </row>
     <row r="199" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B199" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>507</v>
@@ -9576,10 +9579,10 @@
     </row>
     <row r="200" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B200" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>508</v>
@@ -9588,10 +9591,10 @@
     </row>
     <row r="201" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B201" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>509</v>
@@ -9600,10 +9603,10 @@
     </row>
     <row r="202" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B202" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>510</v>
@@ -9612,10 +9615,10 @@
     </row>
     <row r="203" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B203" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>511</v>
@@ -9624,46 +9627,46 @@
     </row>
     <row r="204" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B204" s="56" t="s">
-        <v>419</v>
+        <v>506</v>
+      </c>
+      <c r="B204" s="19">
+        <v>6</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>398</v>
+        <v>512</v>
       </c>
       <c r="D204" s="19"/>
     </row>
-    <row r="205" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A205" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B205" s="35">
-        <v>1</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D205" s="35"/>
+    <row r="205" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B205" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D205" s="19"/>
     </row>
     <row r="206" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A206" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B206" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="D206" s="35"/>
     </row>
     <row r="207" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A207" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B207" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>514</v>
@@ -9672,106 +9675,106 @@
     </row>
     <row r="208" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A208" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B208" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>401</v>
+        <v>515</v>
       </c>
       <c r="D208" s="35"/>
     </row>
     <row r="209" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B209" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>515</v>
+        <v>402</v>
       </c>
       <c r="D209" s="35"/>
     </row>
     <row r="210" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A210" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B210" s="35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="D210" s="35"/>
     </row>
     <row r="211" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A211" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B211" s="35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="D211" s="35"/>
     </row>
     <row r="212" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A212" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B212" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="B212" s="35">
+        <v>7</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C212" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="D212" s="35"/>
     </row>
-    <row r="213" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A213" s="2" t="s">
+    <row r="213" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A213" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="B213" s="19">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D213" s="19"/>
+      <c r="C213" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D213" s="35"/>
     </row>
     <row r="214" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B214" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D214" s="19"/>
     </row>
     <row r="215" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B215" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
       <c r="D215" s="19"/>
     </row>
     <row r="216" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B216" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>520</v>
@@ -9780,130 +9783,130 @@
     </row>
     <row r="217" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B217" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="D217" s="19"/>
     </row>
     <row r="218" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B218" s="20">
-        <v>98</v>
+        <v>519</v>
+      </c>
+      <c r="B218" s="19">
+        <v>5</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
       <c r="D218" s="19"/>
     </row>
     <row r="219" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B219" s="19">
-        <v>1</v>
+        <v>519</v>
+      </c>
+      <c r="B219" s="20">
+        <v>98</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>333</v>
+        <v>522</v>
       </c>
       <c r="D219" s="19"/>
     </row>
     <row r="220" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B220" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D220" s="19"/>
     </row>
     <row r="221" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B221" s="19">
+        <v>2</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D221" s="19"/>
+    </row>
+    <row r="222" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B222" s="19">
         <v>99</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D221" s="19"/>
-    </row>
-    <row r="222" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A222" s="68" t="s">
+      <c r="C222" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D222" s="19"/>
+    </row>
+    <row r="223" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A223" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B222" s="69">
-        <v>1</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="D222" s="69"/>
-    </row>
-    <row r="223" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A223" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B223" s="20">
-        <v>2</v>
-      </c>
-      <c r="C223" s="3" t="s">
+      <c r="B223" s="69">
+        <v>1</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D223" s="20"/>
-    </row>
-    <row r="224" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="D223" s="69"/>
+    </row>
+    <row r="224" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A224" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B224" s="70">
+      <c r="B224" s="20">
+        <v>2</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D224" s="20"/>
+    </row>
+    <row r="225" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A225" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B225" s="70">
         <v>3</v>
       </c>
-      <c r="C224" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="D224" s="70"/>
-    </row>
-    <row r="225" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A225" s="68" t="s">
+      <c r="C225" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B225" s="69">
-        <v>1</v>
-      </c>
-      <c r="C225" s="13" t="s">
+      <c r="D225" s="70"/>
+    </row>
+    <row r="226" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A226" s="68" t="s">
         <v>526</v>
       </c>
-      <c r="D225" s="69"/>
-    </row>
-    <row r="226" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A226" s="65" t="s">
-        <v>525</v>
-      </c>
-      <c r="B226" s="20">
-        <v>2</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="B226" s="69">
+        <v>1</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="D226" s="20"/>
+      <c r="D226" s="69"/>
     </row>
     <row r="227" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A227" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B227" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>528</v>
@@ -9912,10 +9915,10 @@
     </row>
     <row r="228" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A228" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B228" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>529</v>
@@ -9924,10 +9927,10 @@
     </row>
     <row r="229" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A229" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B229" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>530</v>
@@ -9936,10 +9939,10 @@
     </row>
     <row r="230" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A230" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B230" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>531</v>
@@ -9948,46 +9951,46 @@
     </row>
     <row r="231" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A231" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B231" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>532</v>
       </c>
       <c r="D231" s="20"/>
     </row>
-    <row r="232" s="15" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A232" s="71" t="s">
-        <v>525</v>
-      </c>
-      <c r="B232" s="72">
+    <row r="232" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A232" s="65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B232" s="20">
+        <v>7</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D232" s="20"/>
+    </row>
+    <row r="233" s="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A233" s="71" t="s">
+        <v>526</v>
+      </c>
+      <c r="B233" s="72">
         <v>98</v>
       </c>
-      <c r="C232" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D232" s="73"/>
-    </row>
-    <row r="233" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A233" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B233" s="35">
-        <v>1</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D233" s="35"/>
+      <c r="C233" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D233" s="73"/>
     </row>
     <row r="234" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B234" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>535</v>
@@ -9996,10 +9999,10 @@
     </row>
     <row r="235" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B235" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>536</v>
@@ -10008,130 +10011,130 @@
     </row>
     <row r="236" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B236" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>537</v>
       </c>
       <c r="D236" s="35"/>
     </row>
-    <row r="237" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A237" s="68" t="s">
+    <row r="237" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A237" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B237" s="35">
+        <v>4</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D237" s="35"/>
+    </row>
+    <row r="238" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A238" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B237" s="69">
-        <v>1</v>
-      </c>
-      <c r="C237" s="13" t="s">
+      <c r="B238" s="69">
+        <v>1</v>
+      </c>
+      <c r="C238" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D237" s="69"/>
-    </row>
-    <row r="238" s="14" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A238" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B238" s="70">
-        <v>2</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D238" s="70"/>
+      <c r="D238" s="69"/>
     </row>
     <row r="239" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A239" s="65" t="s">
         <v>213</v>
       </c>
       <c r="B239" s="70">
+        <v>2</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D239" s="70"/>
+    </row>
+    <row r="240" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A240" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B240" s="70">
         <v>88</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="C240" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D239" s="70"/>
-    </row>
-    <row r="240" s="15" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A240" s="71" t="s">
+      <c r="D240" s="70"/>
+    </row>
+    <row r="241" s="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A241" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="B240" s="73">
+      <c r="B241" s="73">
         <v>99</v>
       </c>
-      <c r="C240" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="D240" s="73"/>
-    </row>
-    <row r="241" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A241" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="B241" s="36">
-        <v>1</v>
-      </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" s="73"/>
+    </row>
+    <row r="242" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A242" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="B242" s="36">
+        <v>1</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D241" s="36"/>
-    </row>
-    <row r="242" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A242" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="B242" s="35">
-        <v>2</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D242" s="35"/>
+      <c r="D242" s="36"/>
     </row>
     <row r="243" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A243" s="34" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B243" s="35">
+        <v>2</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D243" s="35"/>
+    </row>
+    <row r="244" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A244" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="B244" s="35">
         <v>88</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C244" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D243" s="35"/>
-    </row>
-    <row r="244" s="9" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A244" s="60" t="s">
-        <v>538</v>
-      </c>
-      <c r="B244" s="61">
+      <c r="D244" s="35"/>
+    </row>
+    <row r="245" s="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A245" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="B245" s="61">
         <v>99</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D244" s="61"/>
-    </row>
-    <row r="245" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A245" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B245" s="35">
-        <v>1</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D245" s="35"/>
+      <c r="C245" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D245" s="61"/>
     </row>
     <row r="246" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A246" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B246" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>541</v>
@@ -10140,10 +10143,10 @@
     </row>
     <row r="247" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A247" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B247" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>542</v>
@@ -10152,130 +10155,130 @@
     </row>
     <row r="248" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A248" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B248" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>543</v>
       </c>
       <c r="D248" s="35"/>
     </row>
-    <row r="249" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A249" s="68" t="s">
+    <row r="249" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A249" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B249" s="35">
+        <v>4</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B249" s="69">
-        <v>1</v>
-      </c>
-      <c r="C249" s="13" t="s">
+      <c r="D249" s="35"/>
+    </row>
+    <row r="250" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A250" s="68" t="s">
         <v>545</v>
       </c>
-      <c r="D249" s="69"/>
-    </row>
-    <row r="250" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A250" s="65" t="s">
-        <v>544</v>
-      </c>
-      <c r="B250" s="20">
+      <c r="B250" s="69">
+        <v>1</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D250" s="69"/>
+    </row>
+    <row r="251" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A251" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="B251" s="20">
         <v>2</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D250" s="20"/>
-    </row>
-    <row r="251" s="14" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A251" s="65" t="s">
-        <v>544</v>
-      </c>
-      <c r="B251" s="70">
+      <c r="C251" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D251" s="20"/>
+    </row>
+    <row r="252" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A252" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="B252" s="70">
         <v>99</v>
       </c>
-      <c r="C251" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D251" s="70"/>
-    </row>
-    <row r="252" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A252" s="68" t="s">
+      <c r="C252" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D252" s="70"/>
+    </row>
+    <row r="253" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A253" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="B252" s="69">
-        <v>1</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D252" s="69"/>
-    </row>
-    <row r="253" s="14" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A253" s="65" t="s">
+      <c r="B253" s="69">
+        <v>1</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D253" s="69"/>
+    </row>
+    <row r="254" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A254" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="70">
+      <c r="B254" s="70">
         <v>2</v>
       </c>
-      <c r="C253" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="D253" s="70"/>
-    </row>
-    <row r="254" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A254" s="68" t="s">
+      <c r="C254" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="B254" s="69">
-        <v>1</v>
-      </c>
-      <c r="C254" s="13" t="s">
+      <c r="D254" s="70"/>
+    </row>
+    <row r="255" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A255" s="68" t="s">
         <v>550</v>
       </c>
-      <c r="D254" s="69"/>
-    </row>
-    <row r="255" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A255" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="B255" s="20">
+      <c r="B255" s="69">
+        <v>1</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D255" s="69"/>
+    </row>
+    <row r="256" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A256" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B256" s="20">
         <v>2</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D255" s="20"/>
-    </row>
-    <row r="256" s="15" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A256" s="71" t="s">
-        <v>549</v>
-      </c>
-      <c r="B256" s="73">
+      <c r="C256" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D256" s="20"/>
+    </row>
+    <row r="257" s="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A257" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="B257" s="73">
         <v>3</v>
       </c>
-      <c r="C256" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="D256" s="73"/>
-    </row>
-    <row r="257" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A257" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B257" s="20">
-        <v>1</v>
-      </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D257" s="20"/>
+      <c r="D257" s="73"/>
     </row>
     <row r="258" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B258" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>554</v>
@@ -10287,67 +10290,67 @@
         <v>232</v>
       </c>
       <c r="B259" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>555</v>
       </c>
       <c r="D259" s="20"/>
     </row>
-    <row r="260" s="13" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A260" s="68" t="s">
+    <row r="260" s="3" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A260" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B260" s="20">
+        <v>3</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B260" s="69">
-        <v>1</v>
-      </c>
-      <c r="C260" s="13" t="s">
+      <c r="D260" s="20"/>
+    </row>
+    <row r="261" s="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A261" s="68" t="s">
         <v>557</v>
       </c>
-      <c r="D260" s="69"/>
-    </row>
-    <row r="261" s="14" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A261" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="B261" s="70">
+      <c r="B261" s="69">
+        <v>1</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D261" s="69"/>
+    </row>
+    <row r="262" s="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A262" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="B262" s="70">
         <v>2</v>
       </c>
-      <c r="C261" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D261" s="70"/>
-    </row>
-    <row r="262" s="16" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A262" s="74" t="s">
+      <c r="C262" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="B262" s="75">
-        <v>1</v>
-      </c>
-      <c r="C262" s="76" t="s">
+      <c r="D262" s="70"/>
+    </row>
+    <row r="263" s="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A263" s="74" t="s">
         <v>560</v>
       </c>
-      <c r="D262" s="75"/>
-    </row>
-    <row r="263" s="17" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A263" s="77" t="s">
-        <v>559</v>
-      </c>
-      <c r="B263" s="78">
-        <v>2</v>
-      </c>
-      <c r="C263" s="79" t="s">
+      <c r="B263" s="75">
+        <v>1</v>
+      </c>
+      <c r="C263" s="76" t="s">
         <v>561</v>
       </c>
-      <c r="D263" s="78"/>
+      <c r="D263" s="75"/>
     </row>
     <row r="264" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A264" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B264" s="78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" s="79" t="s">
         <v>562</v>
@@ -10356,10 +10359,10 @@
     </row>
     <row r="265" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A265" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B265" s="78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" s="79" t="s">
         <v>563</v>
@@ -10368,10 +10371,10 @@
     </row>
     <row r="266" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A266" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B266" s="78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" s="79" t="s">
         <v>564</v>
@@ -10380,10 +10383,10 @@
     </row>
     <row r="267" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A267" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B267" s="78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C267" s="79" t="s">
         <v>565</v>
@@ -10392,10 +10395,10 @@
     </row>
     <row r="268" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A268" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B268" s="78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" s="79" t="s">
         <v>566</v>
@@ -10404,10 +10407,10 @@
     </row>
     <row r="269" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A269" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B269" s="78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C269" s="79" t="s">
         <v>567</v>
@@ -10416,10 +10419,10 @@
     </row>
     <row r="270" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A270" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B270" s="78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C270" s="79" t="s">
         <v>568</v>
@@ -10428,10 +10431,10 @@
     </row>
     <row r="271" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A271" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B271" s="78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C271" s="79" t="s">
         <v>569</v>
@@ -10440,10 +10443,10 @@
     </row>
     <row r="272" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A272" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B272" s="78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C272" s="79" t="s">
         <v>570</v>
@@ -10452,10 +10455,10 @@
     </row>
     <row r="273" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A273" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B273" s="78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C273" s="79" t="s">
         <v>571</v>
@@ -10464,10 +10467,10 @@
     </row>
     <row r="274" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A274" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B274" s="78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C274" s="79" t="s">
         <v>572</v>
@@ -10476,10 +10479,10 @@
     </row>
     <row r="275" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A275" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B275" s="78">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C275" s="79" t="s">
         <v>573</v>
@@ -10488,10 +10491,10 @@
     </row>
     <row r="276" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A276" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B276" s="78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C276" s="79" t="s">
         <v>574</v>
@@ -10500,10 +10503,10 @@
     </row>
     <row r="277" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A277" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B277" s="78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C277" s="79" t="s">
         <v>575</v>
@@ -10512,10 +10515,10 @@
     </row>
     <row r="278" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A278" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B278" s="78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278" s="79" t="s">
         <v>576</v>
@@ -10524,10 +10527,10 @@
     </row>
     <row r="279" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A279" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B279" s="78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C279" s="79" t="s">
         <v>577</v>
@@ -10536,10 +10539,10 @@
     </row>
     <row r="280" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A280" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B280" s="78">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C280" s="79" t="s">
         <v>578</v>
@@ -10548,10 +10551,10 @@
     </row>
     <row r="281" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A281" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B281" s="78">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C281" s="79" t="s">
         <v>579</v>
@@ -10560,10 +10563,10 @@
     </row>
     <row r="282" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A282" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B282" s="78">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C282" s="79" t="s">
         <v>580</v>
@@ -10572,10 +10575,10 @@
     </row>
     <row r="283" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A283" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B283" s="78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C283" s="79" t="s">
         <v>581</v>
@@ -10584,10 +10587,10 @@
     </row>
     <row r="284" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A284" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B284" s="78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C284" s="79" t="s">
         <v>582</v>
@@ -10596,10 +10599,10 @@
     </row>
     <row r="285" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A285" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B285" s="78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C285" s="79" t="s">
         <v>583</v>
@@ -10608,10 +10611,10 @@
     </row>
     <row r="286" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A286" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B286" s="78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C286" s="79" t="s">
         <v>584</v>
@@ -10620,10 +10623,10 @@
     </row>
     <row r="287" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A287" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B287" s="78">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C287" s="79" t="s">
         <v>585</v>
@@ -10632,10 +10635,10 @@
     </row>
     <row r="288" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A288" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B288" s="78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C288" s="79" t="s">
         <v>586</v>
@@ -10644,27 +10647,39 @@
     </row>
     <row r="289" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A289" s="77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B289" s="78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C289" s="79" t="s">
         <v>587</v>
       </c>
       <c r="D289" s="78"/>
     </row>
-    <row r="290" s="18" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A290" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="B290" s="81">
+    <row r="290" s="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A290" s="77" t="s">
+        <v>560</v>
+      </c>
+      <c r="B290" s="78">
+        <v>28</v>
+      </c>
+      <c r="C290" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D290" s="78"/>
+    </row>
+    <row r="291" s="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A291" s="80" t="s">
+        <v>560</v>
+      </c>
+      <c r="B291" s="81">
         <v>98</v>
       </c>
-      <c r="C290" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="D290" s="81"/>
+      <c r="C291" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="D291" s="81"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10684,36 +10699,36 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.43269230769231" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.7115384615385" customWidth="1"/>
-    <col min="2" max="2" width="23.2884615384615" customWidth="1"/>
-    <col min="3" max="3" width="32.2884615384615" customWidth="1"/>
+    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="32.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D2" s="1">
         <v>20181</v>

--- a/xforms/xlsforms/individual_details.xlsx
+++ b/xforms/xlsforms/individual_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8430" tabRatio="272" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8430" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3611,7 +3611,7 @@
   <sheetPr/>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -6880,7 +6880,7 @@
   <sheetPr/>
   <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>

--- a/xforms/xlsforms/individual_details.xlsx
+++ b/xforms/xlsforms/individual_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8430" tabRatio="272"/>
+    <workbookView windowWidth="28695" windowHeight="13065" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1888,10 +1888,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1922,25 +1922,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1958,19 +1952,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1989,17 +1983,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,16 +2005,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2036,6 +2042,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -2043,31 +2057,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2124,7 +2124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,13 +2136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,13 +2148,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,7 +2196,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2190,43 +2262,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,67 +2286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2578,11 +2578,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2617,6 +2632,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2634,17 +2660,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2656,22 +2671,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2680,146 +2680,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3267,10 +3267,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="141312"/>
+        <a:sysClr val="windowText" lastClr="232627"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0E9EE"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3612,35 +3612,35 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.9904761904762" customWidth="1"/>
-    <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="50.9047619047619" style="86" customWidth="1"/>
-    <col min="4" max="4" width="42.4285714285714" style="86" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="86" customWidth="1"/>
-    <col min="6" max="6" width="41.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="43.8571428571429" style="86" customWidth="1"/>
-    <col min="8" max="8" width="45.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="42.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="96.3619047619048" customWidth="1"/>
-    <col min="12" max="12" width="50.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="44.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="12.4285714285714" customWidth="1"/>
-    <col min="15" max="15" width="15.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="29.9916666666667" customWidth="1"/>
+    <col min="2" max="2" width="27.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="50.9083333333333" style="86" customWidth="1"/>
+    <col min="4" max="4" width="42.425" style="86" customWidth="1"/>
+    <col min="5" max="5" width="26.425" style="86" customWidth="1"/>
+    <col min="6" max="6" width="41.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="43.8583333333333" style="86" customWidth="1"/>
+    <col min="8" max="8" width="45.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="42.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="30.8583333333333" customWidth="1"/>
+    <col min="11" max="11" width="96.3583333333333" customWidth="1"/>
+    <col min="12" max="12" width="50.425" customWidth="1"/>
+    <col min="13" max="13" width="44.1416666666667" customWidth="1"/>
+    <col min="14" max="14" width="12.425" customWidth="1"/>
+    <col min="15" max="15" width="15.7166666666667" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="13.8571428571429" customWidth="1"/>
-    <col min="19" max="19" width="20.1428571428571" customWidth="1"/>
-    <col min="20" max="20" width="21.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="13.7166666666667" customWidth="1"/>
+    <col min="18" max="18" width="13.8583333333333" customWidth="1"/>
+    <col min="19" max="19" width="20.1416666666667" customWidth="1"/>
+    <col min="20" max="20" width="21.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -4239,9 +4239,7 @@
       <c r="I20" s="90"/>
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
-      <c r="L20" s="92" t="b">
-        <v>1</v>
-      </c>
+      <c r="L20" s="92"/>
       <c r="M20" s="92"/>
       <c r="N20" s="90"/>
       <c r="O20" s="90"/>
@@ -4297,9 +4295,7 @@
       <c r="I22" s="90"/>
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
-      <c r="L22" s="92" t="b">
-        <v>1</v>
-      </c>
+      <c r="L22" s="92"/>
       <c r="M22" s="92"/>
       <c r="N22" s="90"/>
       <c r="O22" s="90"/>
@@ -4353,9 +4349,7 @@
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
-      <c r="L24" s="92" t="b">
-        <v>1</v>
-      </c>
+      <c r="L24" s="92"/>
       <c r="M24" s="92"/>
       <c r="N24" s="90"/>
       <c r="O24" s="90"/>
@@ -6886,15 +6880,15 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7142857142857" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.7166666666667" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="29.1416666666667" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="24.2833333333333" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="6.57142857142857" customWidth="1"/>
-    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="37.7166666666667" customWidth="1"/>
+    <col min="6" max="6" width="6.575" customWidth="1"/>
+    <col min="7" max="7" width="26.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
@@ -10699,11 +10693,11 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.425" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="32.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="24.7166666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">

--- a/xforms/xlsforms/individual_details.xlsx
+++ b/xforms/xlsforms/individual_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" tabRatio="272"/>
+    <workbookView windowWidth="19095" windowHeight="7365" tabRatio="272"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597">
   <si>
     <t>type</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>18. Perm Id do Parceiro</t>
+  </si>
+  <si>
+    <t>${age} &gt;= 15</t>
   </si>
   <si>
     <t>spouseName</t>
@@ -1922,24 +1925,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1949,6 +1944,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1968,13 +1971,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1984,7 +1980,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1998,6 +2009,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2007,7 +2025,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2021,32 +2055,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2058,16 +2069,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,7 +2133,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,31 +2217,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,103 +2271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,13 +2289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,6 +2600,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -2643,6 +2655,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2657,169 +2678,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3612,35 +3615,35 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.9916666666667" customWidth="1"/>
-    <col min="2" max="2" width="27.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.9083333333333" style="86" customWidth="1"/>
-    <col min="4" max="4" width="42.425" style="86" customWidth="1"/>
-    <col min="5" max="5" width="26.425" style="86" customWidth="1"/>
-    <col min="6" max="6" width="41.2833333333333" customWidth="1"/>
-    <col min="7" max="7" width="43.8583333333333" style="86" customWidth="1"/>
-    <col min="8" max="8" width="45.8583333333333" customWidth="1"/>
-    <col min="9" max="9" width="42.1416666666667" customWidth="1"/>
-    <col min="10" max="10" width="30.8583333333333" customWidth="1"/>
-    <col min="11" max="11" width="96.3583333333333" customWidth="1"/>
-    <col min="12" max="12" width="50.425" customWidth="1"/>
-    <col min="13" max="13" width="44.1416666666667" customWidth="1"/>
-    <col min="14" max="14" width="12.425" customWidth="1"/>
-    <col min="15" max="15" width="15.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.9904761904762" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="50.9047619047619" style="86" customWidth="1"/>
+    <col min="4" max="4" width="42.4285714285714" style="86" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="86" customWidth="1"/>
+    <col min="6" max="6" width="41.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="43.8571428571429" style="86" customWidth="1"/>
+    <col min="8" max="8" width="45.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="42.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="30.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="96.3619047619048" customWidth="1"/>
+    <col min="12" max="12" width="50.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="44.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="12.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="15.7142857142857" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="13.7166666666667" customWidth="1"/>
-    <col min="18" max="18" width="13.8583333333333" customWidth="1"/>
-    <col min="19" max="19" width="20.1416666666667" customWidth="1"/>
-    <col min="20" max="20" width="21.1416666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="13.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="20.1428571428571" customWidth="1"/>
+    <col min="20" max="20" width="21.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -4320,7 +4323,9 @@
       <c r="H23" s="90"/>
       <c r="I23" s="90"/>
       <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="K23" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="L23" s="92" t="b">
         <v>1</v>
       </c>
@@ -4336,10 +4341,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="93"/>
       <c r="E24" s="93"/>
@@ -4348,7 +4353,9 @@
       <c r="H24" s="90"/>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="K24" s="98" t="s">
+        <v>66</v>
+      </c>
       <c r="L24" s="92"/>
       <c r="M24" s="92"/>
       <c r="N24" s="90"/>
@@ -4359,13 +4366,13 @@
     </row>
     <row r="25" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A25" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
@@ -4387,13 +4394,13 @@
     </row>
     <row r="26" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A26" s="97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
@@ -4405,7 +4412,7 @@
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
       <c r="K26" s="97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="97"/>
       <c r="M26" s="97"/>
@@ -4417,13 +4424,13 @@
     </row>
     <row r="27" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A27" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
@@ -4435,7 +4442,7 @@
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="97"/>
       <c r="M27" s="97"/>
@@ -4447,16 +4454,16 @@
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:18">
       <c r="A28" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
@@ -4467,7 +4474,7 @@
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
       <c r="K28" s="90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="92"/>
       <c r="M28" s="92"/>
@@ -4479,16 +4486,16 @@
     </row>
     <row r="29" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A29" s="97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
@@ -4499,7 +4506,7 @@
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="97" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29" s="92"/>
       <c r="M29" s="92"/>
@@ -4511,13 +4518,13 @@
     </row>
     <row r="30" s="84" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A30" s="99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>
@@ -4529,7 +4536,7 @@
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
       <c r="K30" s="99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L30" s="107"/>
       <c r="M30" s="107"/>
@@ -4541,13 +4548,13 @@
     </row>
     <row r="31" s="83" customFormat="1" ht="18.95" customHeight="1" spans="1:18">
       <c r="A31" s="97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="97"/>
@@ -4559,7 +4566,7 @@
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
       <c r="K31" s="97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L31" s="97"/>
       <c r="M31" s="97"/>
@@ -4571,13 +4578,13 @@
     </row>
     <row r="32" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A32" s="92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="93"/>
       <c r="E32" s="93"/>
@@ -4589,7 +4596,7 @@
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
       <c r="K32" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L32" s="97"/>
       <c r="M32" s="97"/>
@@ -4604,10 +4611,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="93"/>
       <c r="E33" s="93"/>
@@ -4619,7 +4626,7 @@
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
       <c r="K33" s="97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L33" s="92"/>
       <c r="M33" s="92"/>
@@ -4631,13 +4638,13 @@
     </row>
     <row r="34" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A34" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="93"/>
       <c r="E34" s="93"/>
@@ -4649,7 +4656,7 @@
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
       <c r="K34" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" s="97"/>
       <c r="M34" s="97"/>
@@ -4661,13 +4668,13 @@
     </row>
     <row r="35" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A35" s="92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="93"/>
       <c r="E35" s="93"/>
@@ -4679,7 +4686,7 @@
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
       <c r="K35" s="92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L35" s="97"/>
       <c r="M35" s="97"/>
@@ -4691,13 +4698,13 @@
     </row>
     <row r="36" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A36" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="93"/>
       <c r="E36" s="93"/>
@@ -4709,7 +4716,7 @@
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L36" s="97"/>
       <c r="M36" s="97"/>
@@ -4721,13 +4728,13 @@
     </row>
     <row r="37" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A37" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="93"/>
       <c r="E37" s="93"/>
@@ -4739,7 +4746,7 @@
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
       <c r="K37" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37" s="97"/>
       <c r="M37" s="97"/>
@@ -4751,13 +4758,13 @@
     </row>
     <row r="38" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A38" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="93"/>
       <c r="E38" s="93"/>
@@ -4769,7 +4776,7 @@
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
       <c r="K38" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L38" s="97"/>
       <c r="M38" s="97"/>
@@ -4781,13 +4788,13 @@
     </row>
     <row r="39" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A39" s="92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="93"/>
       <c r="E39" s="93"/>
@@ -4799,7 +4806,7 @@
       <c r="I39" s="97"/>
       <c r="J39" s="97"/>
       <c r="K39" s="92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L39" s="97"/>
       <c r="M39" s="97"/>
@@ -4811,13 +4818,13 @@
     </row>
     <row r="40" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A40" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="93"/>
@@ -4829,7 +4836,7 @@
       <c r="I40" s="97"/>
       <c r="J40" s="97"/>
       <c r="K40" s="97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L40" s="97"/>
       <c r="M40" s="97"/>
@@ -4841,13 +4848,13 @@
     </row>
     <row r="41" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A41" s="92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="93"/>
       <c r="E41" s="93"/>
@@ -4859,7 +4866,7 @@
       <c r="I41" s="97"/>
       <c r="J41" s="97"/>
       <c r="K41" s="92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L41" s="97"/>
       <c r="M41" s="97"/>
@@ -4871,13 +4878,13 @@
     </row>
     <row r="42" s="17" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A42" s="101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="103"/>
       <c r="E42" s="103"/>
@@ -4889,7 +4896,7 @@
       <c r="I42" s="105"/>
       <c r="J42" s="105"/>
       <c r="K42" s="108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L42" s="105"/>
       <c r="M42" s="105"/>
@@ -4901,13 +4908,13 @@
     </row>
     <row r="43" s="83" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A43" s="92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="93"/>
       <c r="E43" s="93"/>
@@ -4919,7 +4926,7 @@
       <c r="I43" s="97"/>
       <c r="J43" s="97"/>
       <c r="K43" s="92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L43" s="97"/>
       <c r="M43" s="97"/>
@@ -4931,13 +4938,13 @@
     </row>
     <row r="44" s="17" customFormat="1" ht="17.1" customHeight="1" spans="1:18">
       <c r="A44" s="101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="103"/>
       <c r="E44" s="103"/>
@@ -4949,7 +4956,7 @@
       <c r="I44" s="105"/>
       <c r="J44" s="105"/>
       <c r="K44" s="108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L44" s="105"/>
       <c r="M44" s="105"/>
@@ -4961,13 +4968,13 @@
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:18">
       <c r="A45" s="97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="93"/>
       <c r="E45" s="93"/>
@@ -4979,7 +4986,7 @@
       <c r="I45" s="90"/>
       <c r="J45" s="90"/>
       <c r="K45" s="105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L45" s="92"/>
       <c r="M45" s="92"/>
@@ -4991,16 +4998,16 @@
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:18">
       <c r="A46" s="97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>
@@ -5011,7 +5018,7 @@
       <c r="I46" s="90"/>
       <c r="J46" s="90"/>
       <c r="K46" s="108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46" s="92"/>
       <c r="M46" s="92"/>
@@ -5023,16 +5030,16 @@
     </row>
     <row r="47" s="3" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A47" s="101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="104"/>
@@ -5043,7 +5050,7 @@
       <c r="I47" s="101"/>
       <c r="J47" s="101"/>
       <c r="K47" s="101" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L47" s="101"/>
       <c r="M47" s="101"/>
@@ -5058,13 +5065,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="103" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E48" s="103"/>
       <c r="F48" s="103"/>
@@ -5075,7 +5082,7 @@
       <c r="I48" s="105"/>
       <c r="J48" s="105"/>
       <c r="K48" s="105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L48" s="101"/>
       <c r="M48" s="101"/>
@@ -5087,16 +5094,16 @@
     </row>
     <row r="49" s="84" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A49" s="99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="100"/>
       <c r="F49" s="100"/>
@@ -5107,7 +5114,7 @@
       <c r="I49" s="99"/>
       <c r="J49" s="99"/>
       <c r="K49" s="108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L49" s="107"/>
       <c r="M49" s="107"/>
@@ -5119,16 +5126,16 @@
     </row>
     <row r="50" s="17" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A50" s="105" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="103"/>
       <c r="F50" s="103"/>
@@ -5139,7 +5146,7 @@
       <c r="I50" s="105"/>
       <c r="J50" s="105"/>
       <c r="K50" s="105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
@@ -5154,13 +5161,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="103" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" s="103"/>
       <c r="F51" s="103"/>
@@ -5171,7 +5178,7 @@
       <c r="I51" s="105"/>
       <c r="J51" s="105"/>
       <c r="K51" s="105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L51" s="101"/>
       <c r="M51" s="101"/>
@@ -5183,13 +5190,13 @@
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:18">
       <c r="A52" s="90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="90"/>
       <c r="E52" s="90"/>
@@ -5201,7 +5208,7 @@
       <c r="I52" s="90"/>
       <c r="J52" s="90"/>
       <c r="K52" s="90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
@@ -5213,13 +5220,13 @@
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:18">
       <c r="A53" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="90"/>
       <c r="E53" s="90"/>
@@ -5231,7 +5238,7 @@
       <c r="I53" s="90"/>
       <c r="J53" s="90"/>
       <c r="K53" s="90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
@@ -5243,13 +5250,13 @@
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:18">
       <c r="A54" s="90" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C54" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
@@ -5261,7 +5268,7 @@
       <c r="I54" s="90"/>
       <c r="J54" s="90"/>
       <c r="K54" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L54" s="90"/>
       <c r="M54" s="90"/>
@@ -5273,13 +5280,13 @@
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:18">
       <c r="A55" s="97" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="93"/>
       <c r="E55" s="93"/>
@@ -5291,7 +5298,7 @@
       <c r="I55" s="90"/>
       <c r="J55" s="90"/>
       <c r="K55" s="90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L55" s="92"/>
       <c r="M55" s="92"/>
@@ -5303,13 +5310,13 @@
     </row>
     <row r="56" s="17" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A56" s="105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C56" s="103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="103"/>
       <c r="E56" s="103"/>
@@ -5321,7 +5328,7 @@
       <c r="I56" s="105"/>
       <c r="J56" s="105"/>
       <c r="K56" s="105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L56" s="101"/>
       <c r="M56" s="101"/>
@@ -5333,13 +5340,13 @@
     </row>
     <row r="57" s="17" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A57" s="105" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" s="103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="103"/>
       <c r="E57" s="103"/>
@@ -5351,7 +5358,7 @@
       <c r="I57" s="105"/>
       <c r="J57" s="105"/>
       <c r="K57" s="105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L57" s="101"/>
       <c r="M57" s="101"/>
@@ -5363,13 +5370,13 @@
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:18">
       <c r="A58" s="97" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" s="103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="93"/>
       <c r="E58" s="93"/>
@@ -5381,7 +5388,7 @@
       <c r="I58" s="90"/>
       <c r="J58" s="90"/>
       <c r="K58" s="108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" s="92"/>
       <c r="M58" s="92"/>
@@ -5393,13 +5400,13 @@
     </row>
     <row r="59" s="17" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A59" s="105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" s="103" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="103"/>
       <c r="E59" s="103"/>
@@ -5411,7 +5418,7 @@
       <c r="I59" s="105"/>
       <c r="J59" s="105"/>
       <c r="K59" s="109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L59" s="101"/>
       <c r="M59" s="101"/>
@@ -5423,13 +5430,13 @@
     </row>
     <row r="60" s="17" customFormat="1" ht="62" customHeight="1" spans="1:18">
       <c r="A60" s="105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="103"/>
       <c r="E60" s="103"/>
@@ -5439,7 +5446,7 @@
       <c r="I60" s="105"/>
       <c r="J60" s="105"/>
       <c r="K60" s="105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L60" s="101"/>
       <c r="M60" s="101"/>
@@ -5451,13 +5458,13 @@
     </row>
     <row r="61" s="17" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A61" s="105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B61" s="105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" s="103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="103"/>
       <c r="E61" s="103"/>
@@ -5469,7 +5476,7 @@
       <c r="I61" s="105"/>
       <c r="J61" s="105"/>
       <c r="K61" s="105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L61" s="101"/>
       <c r="M61" s="101"/>
@@ -5481,13 +5488,13 @@
     </row>
     <row r="62" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A62" s="97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="93"/>
       <c r="E62" s="93"/>
@@ -5499,7 +5506,7 @@
       <c r="I62" s="97"/>
       <c r="J62" s="97"/>
       <c r="K62" s="97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L62" s="92"/>
       <c r="M62" s="92"/>
@@ -5511,13 +5518,13 @@
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:18">
       <c r="A63" s="92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="93"/>
       <c r="E63" s="93"/>
@@ -5529,7 +5536,7 @@
       <c r="I63" s="90"/>
       <c r="J63" s="90"/>
       <c r="K63" s="90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L63" s="92"/>
       <c r="M63" s="92"/>
@@ -5541,13 +5548,13 @@
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:18">
       <c r="A64" s="90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" s="90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" s="90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="90"/>
       <c r="E64" s="90"/>
@@ -5559,7 +5566,7 @@
       <c r="I64" s="90"/>
       <c r="J64" s="90"/>
       <c r="K64" s="90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L64" s="90"/>
       <c r="M64" s="90"/>
@@ -5574,20 +5581,20 @@
         <v>45</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C65" s="93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E65" s="93"/>
       <c r="F65" s="93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G65" s="93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H65" s="90" t="b">
         <v>1</v>
@@ -5595,7 +5602,7 @@
       <c r="I65" s="90"/>
       <c r="J65" s="90"/>
       <c r="K65" s="90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L65" s="92"/>
       <c r="M65" s="92"/>
@@ -5607,13 +5614,13 @@
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="1:18">
       <c r="A66" s="97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="93"/>
       <c r="E66" s="93"/>
@@ -5625,7 +5632,7 @@
       <c r="I66" s="90"/>
       <c r="J66" s="90"/>
       <c r="K66" s="90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L66" s="92"/>
       <c r="M66" s="92"/>
@@ -5640,20 +5647,20 @@
         <v>25</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" s="110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E67" s="93"/>
       <c r="F67" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G67" s="93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H67" s="90" t="b">
         <v>1</v>
@@ -5661,7 +5668,7 @@
       <c r="I67" s="90"/>
       <c r="J67" s="90"/>
       <c r="K67" s="91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L67" s="92"/>
       <c r="M67" s="92"/>
@@ -5676,20 +5683,20 @@
         <v>25</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C68" s="110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="93"/>
       <c r="F68" s="90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G68" s="93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H68" s="90" t="b">
         <v>1</v>
@@ -5697,7 +5704,7 @@
       <c r="I68" s="90"/>
       <c r="J68" s="90"/>
       <c r="K68" s="91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L68" s="92"/>
       <c r="M68" s="92"/>
@@ -5709,16 +5716,16 @@
     </row>
     <row r="69" s="83" customFormat="1" ht="17" customHeight="1" spans="1:18">
       <c r="A69" s="92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C69" s="110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D69" s="93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E69" s="93"/>
       <c r="F69" s="97"/>
@@ -5729,7 +5736,7 @@
       <c r="I69" s="97"/>
       <c r="J69" s="97"/>
       <c r="K69" s="93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L69" s="92"/>
       <c r="M69" s="92"/>
@@ -5741,13 +5748,13 @@
     </row>
     <row r="70" ht="18.95" customHeight="1" spans="1:18">
       <c r="A70" s="92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" s="93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" s="93"/>
       <c r="E70" s="93"/>
@@ -5759,7 +5766,7 @@
       <c r="I70" s="90"/>
       <c r="J70" s="90"/>
       <c r="K70" s="90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L70" s="92"/>
       <c r="M70" s="92"/>
@@ -5774,10 +5781,10 @@
         <v>22</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" s="93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D71" s="93"/>
       <c r="E71" s="93"/>
@@ -5789,7 +5796,7 @@
       <c r="I71" s="90"/>
       <c r="J71" s="90"/>
       <c r="K71" s="105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L71" s="92"/>
       <c r="M71" s="92"/>
@@ -5801,13 +5808,13 @@
     </row>
     <row r="72" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A72" s="92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C72" s="93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -5819,7 +5826,7 @@
       <c r="I72" s="97"/>
       <c r="J72" s="97"/>
       <c r="K72" s="97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L72" s="92"/>
       <c r="M72" s="92"/>
@@ -5831,13 +5838,13 @@
     </row>
     <row r="73" s="83" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A73" s="92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C73" s="93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D73" s="93"/>
       <c r="E73" s="93"/>
@@ -5849,7 +5856,7 @@
       <c r="I73" s="97"/>
       <c r="J73" s="97"/>
       <c r="K73" s="97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L73" s="92"/>
       <c r="M73" s="92"/>
@@ -5861,13 +5868,13 @@
     </row>
     <row r="74" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A74" s="92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C74" s="93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D74" s="93"/>
       <c r="E74" s="93"/>
@@ -5879,7 +5886,7 @@
       <c r="I74" s="97"/>
       <c r="J74" s="97"/>
       <c r="K74" s="97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L74" s="92"/>
       <c r="M74" s="92"/>
@@ -5891,13 +5898,13 @@
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:18">
       <c r="A75" s="97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" s="93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D75" s="93"/>
       <c r="E75" s="93"/>
@@ -5909,7 +5916,7 @@
       <c r="I75" s="90"/>
       <c r="J75" s="90"/>
       <c r="K75" s="90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L75" s="92"/>
       <c r="M75" s="92"/>
@@ -5924,10 +5931,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C76" s="93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D76" s="93"/>
       <c r="E76" s="93"/>
@@ -5939,7 +5946,7 @@
       <c r="I76" s="90"/>
       <c r="J76" s="90"/>
       <c r="K76" s="105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L76" s="92"/>
       <c r="M76" s="92"/>
@@ -5951,16 +5958,16 @@
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:18">
       <c r="A77" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C77" s="93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D77" s="93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E77" s="93"/>
       <c r="F77" s="90"/>
@@ -5971,7 +5978,7 @@
       <c r="I77" s="90"/>
       <c r="J77" s="90"/>
       <c r="K77" s="90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L77" s="92"/>
       <c r="M77" s="92"/>
@@ -5986,10 +5993,10 @@
         <v>25</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C78" s="93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D78" s="93"/>
       <c r="E78" s="93"/>
@@ -6001,7 +6008,7 @@
       <c r="I78" s="90"/>
       <c r="J78" s="90"/>
       <c r="K78" s="90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L78" s="92"/>
       <c r="M78" s="92"/>
@@ -6013,13 +6020,13 @@
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:18">
       <c r="A79" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B79" s="97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C79" s="93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D79" s="93"/>
       <c r="E79" s="93"/>
@@ -6031,7 +6038,7 @@
       <c r="I79" s="90"/>
       <c r="J79" s="90"/>
       <c r="K79" s="90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L79" s="92"/>
       <c r="M79" s="92"/>
@@ -6043,13 +6050,13 @@
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:18">
       <c r="A80" s="97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C80" s="93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
@@ -6061,7 +6068,7 @@
       <c r="I80" s="90"/>
       <c r="J80" s="90"/>
       <c r="K80" s="90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L80" s="92"/>
       <c r="M80" s="92"/>
@@ -6076,10 +6083,10 @@
         <v>22</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C81" s="93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D81" s="93"/>
       <c r="E81" s="93"/>
@@ -6091,7 +6098,7 @@
       <c r="I81" s="97"/>
       <c r="J81" s="97"/>
       <c r="K81" s="97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L81" s="92"/>
       <c r="M81" s="92"/>
@@ -6103,13 +6110,13 @@
     </row>
     <row r="82" ht="14.25" customHeight="1" spans="1:18">
       <c r="A82" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C82" s="93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D82" s="93"/>
       <c r="E82" s="93"/>
@@ -6121,7 +6128,7 @@
       <c r="I82" s="90"/>
       <c r="J82" s="90"/>
       <c r="K82" s="90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L82" s="92"/>
       <c r="M82" s="92"/>
@@ -6136,10 +6143,10 @@
         <v>22</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" s="93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D83" s="93"/>
       <c r="E83" s="93"/>
@@ -6151,7 +6158,7 @@
       <c r="I83" s="97"/>
       <c r="J83" s="97"/>
       <c r="K83" s="97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L83" s="92"/>
       <c r="M83" s="92"/>
@@ -6163,13 +6170,13 @@
     </row>
     <row r="84" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A84" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" s="97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C84" s="93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D84" s="93"/>
       <c r="E84" s="93"/>
@@ -6179,7 +6186,7 @@
       <c r="I84" s="97"/>
       <c r="J84" s="97"/>
       <c r="K84" s="97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L84" s="92"/>
       <c r="M84" s="92"/>
@@ -6191,16 +6198,16 @@
     </row>
     <row r="85" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A85" s="111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B85" s="111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C85" s="112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D85" s="93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E85" s="93"/>
       <c r="F85" s="97"/>
@@ -6209,7 +6216,7 @@
       <c r="I85" s="97"/>
       <c r="J85" s="97"/>
       <c r="K85" s="105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L85" s="92"/>
       <c r="M85" s="92"/>
@@ -6221,13 +6228,13 @@
     </row>
     <row r="86" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A86" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B86" s="113" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C86" s="93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D86" s="93"/>
       <c r="E86" s="93"/>
@@ -6247,25 +6254,25 @@
       <c r="Q86" s="97"/>
       <c r="R86" s="97"/>
     </row>
-    <row r="87" s="85" customFormat="1" ht="36" spans="1:18">
+    <row r="87" s="85" customFormat="1" ht="33.75" spans="1:18">
       <c r="A87" s="114" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" s="115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D87" s="114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E87" s="115"/>
       <c r="F87" s="97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G87" s="93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H87" s="114" t="b">
         <v>1</v>
@@ -6273,7 +6280,7 @@
       <c r="I87" s="114"/>
       <c r="J87" s="114"/>
       <c r="K87" s="114" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L87" s="114"/>
       <c r="M87" s="114"/>
@@ -6288,18 +6295,18 @@
         <v>25</v>
       </c>
       <c r="B88" s="97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C88" s="116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D88" s="93"/>
       <c r="E88" s="93"/>
       <c r="F88" s="97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G88" s="93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H88" s="97" t="b">
         <v>1</v>
@@ -6307,7 +6314,7 @@
       <c r="I88" s="97"/>
       <c r="J88" s="97"/>
       <c r="K88" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L88" s="92"/>
       <c r="M88" s="92"/>
@@ -6317,23 +6324,23 @@
       <c r="Q88" s="97"/>
       <c r="R88" s="97"/>
     </row>
-    <row r="89" s="83" customFormat="1" ht="24" spans="1:18">
+    <row r="89" s="83" customFormat="1" ht="22.5" spans="1:18">
       <c r="A89" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B89" s="97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C89" s="116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D89" s="93"/>
       <c r="E89" s="93"/>
       <c r="F89" s="97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G89" s="93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H89" s="97" t="b">
         <v>1</v>
@@ -6341,7 +6348,7 @@
       <c r="I89" s="97"/>
       <c r="J89" s="97"/>
       <c r="K89" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L89" s="92"/>
       <c r="M89" s="92"/>
@@ -6351,23 +6358,23 @@
       <c r="Q89" s="97"/>
       <c r="R89" s="97"/>
     </row>
-    <row r="90" s="83" customFormat="1" ht="36" spans="1:18">
+    <row r="90" s="83" customFormat="1" ht="33.75" spans="1:18">
       <c r="A90" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C90" s="116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D90" s="93"/>
       <c r="E90" s="93"/>
       <c r="F90" s="97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G90" s="93" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H90" s="97" t="b">
         <v>1</v>
@@ -6375,7 +6382,7 @@
       <c r="I90" s="97"/>
       <c r="J90" s="97"/>
       <c r="K90" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L90" s="92"/>
       <c r="M90" s="92"/>
@@ -6385,23 +6392,23 @@
       <c r="Q90" s="97"/>
       <c r="R90" s="97"/>
     </row>
-    <row r="91" s="83" customFormat="1" ht="24" spans="1:18">
+    <row r="91" s="83" customFormat="1" ht="22.5" spans="1:18">
       <c r="A91" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C91" s="116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D91" s="93"/>
       <c r="E91" s="93"/>
       <c r="F91" s="97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G91" s="93" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H91" s="97" t="b">
         <v>1</v>
@@ -6409,7 +6416,7 @@
       <c r="I91" s="97"/>
       <c r="J91" s="97"/>
       <c r="K91" s="97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L91" s="92"/>
       <c r="M91" s="92"/>
@@ -6419,23 +6426,23 @@
       <c r="Q91" s="97"/>
       <c r="R91" s="97"/>
     </row>
-    <row r="92" s="83" customFormat="1" ht="24.75" spans="1:18">
+    <row r="92" s="83" customFormat="1" ht="23.25" spans="1:18">
       <c r="A92" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B92" s="97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C92" s="116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D92" s="93"/>
       <c r="E92" s="93"/>
       <c r="F92" s="120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G92" s="121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H92" s="97" t="b">
         <v>1</v>
@@ -6443,7 +6450,7 @@
       <c r="I92" s="97"/>
       <c r="J92" s="97"/>
       <c r="K92" s="97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L92" s="92"/>
       <c r="M92" s="92"/>
@@ -6453,25 +6460,25 @@
       <c r="Q92" s="97"/>
       <c r="R92" s="97"/>
     </row>
-    <row r="93" s="83" customFormat="1" ht="36.75" spans="1:18">
+    <row r="93" s="83" customFormat="1" ht="34.5" spans="1:18">
       <c r="A93" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C93" s="116" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D93" s="116" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E93" s="122"/>
       <c r="F93" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G93" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H93" s="125" t="b">
         <v>1</v>
@@ -6479,7 +6486,7 @@
       <c r="I93" s="97"/>
       <c r="J93" s="97"/>
       <c r="K93" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L93" s="92"/>
       <c r="M93" s="92"/>
@@ -6489,25 +6496,25 @@
       <c r="Q93" s="97"/>
       <c r="R93" s="97"/>
     </row>
-    <row r="94" s="83" customFormat="1" ht="36.75" spans="1:18">
+    <row r="94" s="83" customFormat="1" ht="34.5" spans="1:18">
       <c r="A94" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B94" s="97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C94" s="116" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D94" s="117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E94" s="122"/>
       <c r="F94" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G94" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H94" s="125" t="b">
         <v>1</v>
@@ -6515,7 +6522,7 @@
       <c r="I94" s="97"/>
       <c r="J94" s="97"/>
       <c r="K94" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L94" s="92"/>
       <c r="M94" s="92"/>
@@ -6525,23 +6532,23 @@
       <c r="Q94" s="97"/>
       <c r="R94" s="97"/>
     </row>
-    <row r="95" s="83" customFormat="1" ht="36.75" spans="1:18">
+    <row r="95" s="83" customFormat="1" ht="34.5" spans="1:18">
       <c r="A95" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B95" s="97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C95" s="116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D95" s="116"/>
       <c r="E95" s="122"/>
       <c r="F95" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G95" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H95" s="125" t="b">
         <v>1</v>
@@ -6549,7 +6556,7 @@
       <c r="I95" s="97"/>
       <c r="J95" s="97"/>
       <c r="K95" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L95" s="92"/>
       <c r="M95" s="92"/>
@@ -6559,23 +6566,23 @@
       <c r="Q95" s="97"/>
       <c r="R95" s="97"/>
     </row>
-    <row r="96" s="83" customFormat="1" ht="24.75" spans="1:18">
+    <row r="96" s="83" customFormat="1" ht="23.25" spans="1:18">
       <c r="A96" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B96" s="97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C96" s="116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D96" s="93"/>
       <c r="E96" s="122"/>
       <c r="F96" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G96" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H96" s="125" t="b">
         <v>1</v>
@@ -6583,7 +6590,7 @@
       <c r="I96" s="97"/>
       <c r="J96" s="97"/>
       <c r="K96" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L96" s="92"/>
       <c r="M96" s="92"/>
@@ -6593,23 +6600,23 @@
       <c r="Q96" s="97"/>
       <c r="R96" s="97"/>
     </row>
-    <row r="97" s="83" customFormat="1" ht="24.75" spans="1:18">
+    <row r="97" s="83" customFormat="1" ht="23.25" spans="1:18">
       <c r="A97" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B97" s="97" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C97" s="116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D97" s="93"/>
       <c r="E97" s="122"/>
       <c r="F97" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G97" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H97" s="125" t="b">
         <v>1</v>
@@ -6617,7 +6624,7 @@
       <c r="I97" s="97"/>
       <c r="J97" s="97"/>
       <c r="K97" s="97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L97" s="92"/>
       <c r="M97" s="92"/>
@@ -6627,23 +6634,23 @@
       <c r="Q97" s="97"/>
       <c r="R97" s="97"/>
     </row>
-    <row r="98" s="83" customFormat="1" ht="24.75" spans="1:18">
+    <row r="98" s="83" customFormat="1" ht="23.25" spans="1:18">
       <c r="A98" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B98" s="93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C98" s="116" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D98" s="93"/>
       <c r="E98" s="122"/>
       <c r="F98" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G98" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H98" s="125" t="b">
         <v>1</v>
@@ -6651,7 +6658,7 @@
       <c r="I98" s="97"/>
       <c r="J98" s="97"/>
       <c r="K98" s="97" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L98" s="92"/>
       <c r="M98" s="92"/>
@@ -6661,23 +6668,23 @@
       <c r="Q98" s="97"/>
       <c r="R98" s="97"/>
     </row>
-    <row r="99" s="83" customFormat="1" ht="24.75" spans="1:18">
+    <row r="99" s="83" customFormat="1" ht="23.25" spans="1:18">
       <c r="A99" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B99" s="97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C99" s="116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D99" s="93"/>
       <c r="E99" s="122"/>
       <c r="F99" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G99" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H99" s="125" t="b">
         <v>1</v>
@@ -6685,7 +6692,7 @@
       <c r="I99" s="97"/>
       <c r="J99" s="97"/>
       <c r="K99" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L99" s="92"/>
       <c r="M99" s="92"/>
@@ -6695,23 +6702,23 @@
       <c r="Q99" s="97"/>
       <c r="R99" s="97"/>
     </row>
-    <row r="100" s="83" customFormat="1" ht="24" spans="1:18">
+    <row r="100" s="83" customFormat="1" ht="22.5" spans="1:18">
       <c r="A100" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B100" s="97" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C100" s="116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D100" s="93"/>
       <c r="E100" s="122"/>
       <c r="F100" s="123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G100" s="124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H100" s="125" t="b">
         <v>1</v>
@@ -6719,7 +6726,7 @@
       <c r="I100" s="97"/>
       <c r="J100" s="97"/>
       <c r="K100" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L100" s="92"/>
       <c r="M100" s="92"/>
@@ -6729,23 +6736,23 @@
       <c r="Q100" s="97"/>
       <c r="R100" s="97"/>
     </row>
-    <row r="101" s="83" customFormat="1" ht="36" spans="1:18">
+    <row r="101" s="83" customFormat="1" ht="33.75" spans="1:18">
       <c r="A101" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C101" s="92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D101" s="93"/>
       <c r="E101" s="122"/>
       <c r="F101" s="97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G101" s="93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H101" s="125" t="b">
         <v>1</v>
@@ -6753,7 +6760,7 @@
       <c r="I101" s="97"/>
       <c r="J101" s="97"/>
       <c r="K101" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L101" s="92"/>
       <c r="M101" s="92"/>
@@ -6765,7 +6772,7 @@
     </row>
     <row r="102" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:18">
       <c r="A102" s="111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B102" s="97"/>
       <c r="C102" s="118"/>
@@ -6790,16 +6797,16 @@
         <v>25</v>
       </c>
       <c r="B103" s="92" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C103" s="93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E103" s="93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F103" s="90"/>
       <c r="G103" s="93"/>
@@ -6822,16 +6829,16 @@
         <v>25</v>
       </c>
       <c r="B104" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="D104" s="93" t="s">
-        <v>328</v>
-      </c>
       <c r="E104" s="93" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F104" s="90"/>
       <c r="G104" s="93"/>
@@ -6880,20 +6887,20 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7166666666667" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.7142857142857" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7166666666667" customWidth="1"/>
-    <col min="6" max="6" width="6.575" customWidth="1"/>
-    <col min="7" max="7" width="26.1416666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="6.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="26.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -6905,61 +6912,61 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D3" s="19"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="19">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="19">
         <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -6969,49 +6976,49 @@
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B8" s="20">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B9" s="20">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B10" s="20">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B11" s="20">
         <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -7021,25 +7028,25 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -7047,57 +7054,57 @@
       <c r="B15" s="19"/>
       <c r="D15" s="21"/>
       <c r="E15" s="43" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B16" s="22">
         <v>1</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D16" s="24">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H16" s="19">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B17" s="25">
         <v>2</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D17" s="26">
         <v>2</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
@@ -7105,24 +7112,24 @@
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B18" s="25">
         <v>3</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D18" s="27">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="50"/>
@@ -7130,24 +7137,24 @@
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B19" s="25">
         <v>4</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D19" s="28">
         <v>4</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="50"/>
@@ -7155,24 +7162,24 @@
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B20" s="25">
         <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D20" s="27">
         <v>5</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="50"/>
@@ -7180,24 +7187,24 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B21" s="25">
         <v>6</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D21" s="27">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="50"/>
@@ -7205,53 +7212,53 @@
         <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B22" s="25">
         <v>7</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D22" s="27">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F22" s="49">
         <v>2</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H22" s="19">
         <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B23" s="25">
         <v>8</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D23" s="27">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="50"/>
@@ -7259,53 +7266,53 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B24" s="25">
         <v>9</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D24" s="27">
         <v>9</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F24" s="49">
         <v>3</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H24" s="19">
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B25" s="25">
         <v>10</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D25" s="26">
         <v>10</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="50"/>
@@ -7313,53 +7320,53 @@
         <v>10</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B26" s="25">
         <v>11</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D26" s="27">
         <v>11</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F26" s="49">
         <v>4</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" s="19">
         <v>11</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B27" s="25">
         <v>12</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D27" s="26">
         <v>12</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="50"/>
@@ -7367,24 +7374,24 @@
         <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B28" s="25">
         <v>13</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D28" s="27">
         <v>13</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="50"/>
@@ -7392,53 +7399,53 @@
         <v>13</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B29" s="25">
         <v>14</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D29" s="27">
         <v>14</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F29" s="49">
         <v>5</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H29" s="20">
         <v>14</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B30" s="25">
         <v>15</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D30" s="26">
         <v>15</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="50"/>
@@ -7446,243 +7453,243 @@
         <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B31" s="25">
         <v>16</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D31" s="27">
         <v>16</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F31" s="49">
         <v>6</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H31" s="19">
         <v>88</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B32" s="25">
         <v>17</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D32" s="26">
         <v>17</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F32" s="49">
         <v>7</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B33" s="25">
         <v>18</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D33" s="27">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F33" s="49">
         <v>8</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34" s="25">
         <v>19</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D34" s="28">
         <v>19</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F34" s="49">
         <v>9</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B35" s="25">
         <v>20</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D35" s="27">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F35" s="49">
         <v>10</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B36" s="25">
         <v>21</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D36" s="27">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F36" s="49">
         <v>11</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" s="25">
         <v>22</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D37" s="27">
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F37" s="49">
         <v>12</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" s="22">
         <v>23</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D38" s="24">
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F38" s="49">
         <v>13</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" s="22">
         <v>98</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D39" s="30">
         <v>98</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F39" s="49">
         <v>98</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B40" s="22">
         <v>88</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D40" s="31">
         <v>88</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F40" s="54">
         <v>88</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="2:4">
@@ -7691,61 +7698,61 @@
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B42" s="20">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D42" s="19"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B43" s="20">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D43" s="19"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B44" s="20">
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D44" s="19"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="20">
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D45" s="19"/>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" s="20">
         <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -7755,37 +7762,37 @@
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" s="20">
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D48" s="19"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B49" s="20">
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D49" s="19"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" s="20">
         <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -7795,2883 +7802,2883 @@
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:4">
       <c r="A52" s="32" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="33">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D52" s="33"/>
     </row>
     <row r="53" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A53" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" s="35">
         <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D53" s="35"/>
     </row>
     <row r="54" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A54" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B54" s="35">
         <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D54" s="35"/>
     </row>
     <row r="55" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A55" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B55" s="35">
         <v>4</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D55" s="35"/>
     </row>
     <row r="56" s="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A56" s="34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B56" s="36">
         <v>98</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D56" s="36"/>
     </row>
     <row r="57" s="7" customFormat="1" customHeight="1" spans="1:4">
       <c r="A57" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B57" s="38">
         <v>1</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D57" s="40"/>
     </row>
     <row r="58" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A58" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B58" s="38">
         <v>2</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D58" s="42"/>
     </row>
     <row r="59" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A59" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B59" s="20">
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" s="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A60" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B60" s="20">
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A61" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B61" s="42">
         <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D61" s="42"/>
     </row>
     <row r="62" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A62" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B62" s="42">
         <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D62" s="42"/>
     </row>
     <row r="63" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A63" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B63" s="42">
         <v>7</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D63" s="42"/>
     </row>
     <row r="64" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A64" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B64" s="42">
         <v>8</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D64" s="42"/>
     </row>
     <row r="65" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A65" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B65" s="42">
         <v>9</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D65" s="42"/>
     </row>
     <row r="66" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A66" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B66" s="42">
         <v>10</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D66" s="42"/>
     </row>
     <row r="67" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B67" s="42">
         <v>11</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D67" s="42"/>
     </row>
     <row r="68" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A68" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B68" s="42">
         <v>12</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D68" s="42"/>
     </row>
     <row r="69" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A69" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B69" s="42">
         <v>13</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D69" s="42"/>
     </row>
     <row r="70" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A70" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B70" s="42">
         <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D70" s="42"/>
     </row>
     <row r="71" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A71" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B71" s="42">
         <v>15</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D71" s="42"/>
     </row>
     <row r="72" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A72" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B72" s="42">
         <v>16</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D72" s="42"/>
     </row>
     <row r="73" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A73" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B73" s="42">
         <v>17</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D73" s="42"/>
     </row>
     <row r="74" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A74" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B74" s="42">
         <v>18</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D74" s="42"/>
     </row>
     <row r="75" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A75" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B75" s="42">
         <v>19</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D75" s="42"/>
     </row>
     <row r="76" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A76" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D76" s="42"/>
     </row>
     <row r="77" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A77" s="41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B77" s="42">
         <v>88</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D77" s="42"/>
     </row>
     <row r="78" s="8" customFormat="1" customHeight="1" spans="1:4">
       <c r="A78" s="57" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B78" s="58">
         <v>99</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D78" s="42"/>
     </row>
     <row r="79" s="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A79" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B79" s="36">
         <v>1</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D79" s="36"/>
     </row>
     <row r="80" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A80" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B80" s="35">
         <v>2</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D80" s="35"/>
     </row>
     <row r="81" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A81" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B81" s="35">
         <v>3</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D81" s="35"/>
     </row>
     <row r="82" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A82" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B82" s="35">
         <v>4</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D82" s="35"/>
     </row>
     <row r="83" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A83" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B83" s="35">
         <v>5</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D83" s="35"/>
     </row>
     <row r="84" s="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A84" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B84" s="36">
         <v>6</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D84" s="36"/>
     </row>
     <row r="85" s="4" customFormat="1" customHeight="1" spans="1:4">
       <c r="A85" s="32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B85" s="33">
         <v>1</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D85" s="33"/>
     </row>
     <row r="86" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A86" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B86" s="35">
         <v>2</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D86" s="35"/>
     </row>
     <row r="87" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A87" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B87" s="35">
         <v>3</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D87" s="35"/>
     </row>
     <row r="88" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A88" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B88" s="35">
         <v>4</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D88" s="35"/>
     </row>
     <row r="89" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A89" s="60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B89" s="61">
         <v>99</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D89" s="61"/>
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B90" s="19">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D90" s="19"/>
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B91" s="19">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D91" s="19"/>
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B92" s="19">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D92" s="19"/>
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B93" s="19">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D93" s="19"/>
     </row>
     <row r="94" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B94" s="19">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D94" s="19"/>
     </row>
     <row r="95" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B95" s="19">
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D95" s="19"/>
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B96" s="19">
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D96" s="19"/>
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B97" s="19">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D97" s="19"/>
     </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B98" s="19">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D98" s="19"/>
     </row>
     <row r="99" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B99" s="19">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D99" s="19"/>
     </row>
     <row r="100" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B100" s="19">
         <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D100" s="19"/>
     </row>
     <row r="101" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B101" s="19">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D101" s="19"/>
     </row>
     <row r="102" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B102" s="19">
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D102" s="19"/>
     </row>
     <row r="103" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" s="19">
         <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D103" s="19"/>
     </row>
     <row r="104" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B104" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D104" s="19"/>
     </row>
     <row r="105" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B105" s="19">
         <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D105" s="19"/>
     </row>
     <row r="106" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B106" s="19">
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D106" s="19"/>
     </row>
     <row r="107" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B107" s="19">
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D107" s="19"/>
     </row>
     <row r="108" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="19">
         <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D108" s="19"/>
     </row>
     <row r="109" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" s="19">
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D109" s="19"/>
     </row>
     <row r="110" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="19">
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D110" s="19"/>
     </row>
     <row r="111" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="19">
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D111" s="19"/>
     </row>
     <row r="112" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="19">
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D112" s="19"/>
     </row>
     <row r="113" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" s="19">
         <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D113" s="19"/>
     </row>
     <row r="114" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="19">
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D114" s="19"/>
     </row>
     <row r="115" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B115" s="19">
         <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D115" s="19"/>
     </row>
     <row r="116" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B116" s="19">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D116" s="19"/>
     </row>
     <row r="117" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117" s="19">
         <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D117" s="19"/>
     </row>
     <row r="118" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="19">
         <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D118" s="19"/>
     </row>
     <row r="119" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D119" s="19"/>
     </row>
     <row r="120" s="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A120" s="44" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B120" s="62">
         <v>1</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D120" s="62"/>
     </row>
     <row r="121" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A121" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B121" s="19">
         <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D121" s="19"/>
     </row>
     <row r="122" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A122" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B122" s="19">
         <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D122" s="19"/>
     </row>
     <row r="123" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A123" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B123" s="19">
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D123" s="19"/>
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A124" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B124" s="19">
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D124" s="19"/>
     </row>
     <row r="125" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A125" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B125" s="19">
         <v>6</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D125" s="19"/>
     </row>
     <row r="126" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A126" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B126" s="19">
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D126" s="19"/>
     </row>
     <row r="127" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A127" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B127" s="19">
         <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D127" s="19"/>
     </row>
     <row r="128" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A128" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B128" s="19">
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D128" s="19"/>
     </row>
     <row r="129" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A129" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B129" s="20">
         <v>98</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D129" s="19"/>
     </row>
     <row r="130" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A130" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B130" s="19">
         <v>88</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D130" s="19"/>
     </row>
     <row r="131" s="11" customFormat="1" customHeight="1" spans="1:4">
       <c r="A131" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B131" s="24">
         <v>99</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D131" s="24"/>
     </row>
     <row r="132" s="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A132" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B132" s="62">
         <v>1</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D132" s="62"/>
     </row>
     <row r="133" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A133" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" s="19">
         <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D133" s="19"/>
     </row>
     <row r="134" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A134" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B134" s="19">
         <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D134" s="19"/>
     </row>
     <row r="135" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A135" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B135" s="19">
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D135" s="19"/>
     </row>
     <row r="136" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A136" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B136" s="19">
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D136" s="19"/>
     </row>
     <row r="137" s="12" customFormat="1" customHeight="1" spans="1:4">
       <c r="A137" s="64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B137" s="31">
         <v>6</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D137" s="31"/>
     </row>
     <row r="138" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B138" s="19">
         <v>1</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D138" s="19"/>
     </row>
     <row r="139" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B139" s="19">
         <v>2</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D139" s="19"/>
     </row>
     <row r="140" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B140" s="20">
         <v>3</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D140" s="19"/>
     </row>
     <row r="141" s="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A141" s="44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B141" s="62">
         <v>1</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D141" s="62"/>
     </row>
     <row r="142" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A142" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B142" s="19">
         <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D142" s="19"/>
     </row>
     <row r="143" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A143" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B143" s="19">
         <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D143" s="19"/>
     </row>
     <row r="144" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A144" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B144" s="19">
         <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D144" s="19"/>
     </row>
     <row r="145" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A145" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B145" s="19">
         <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D145" s="19"/>
     </row>
     <row r="146" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A146" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B146" s="19">
         <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D146" s="19"/>
     </row>
     <row r="147" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A147" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B147" s="19">
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D147" s="19"/>
     </row>
     <row r="148" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A148" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B148" s="19">
         <v>8</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D148" s="19"/>
     </row>
     <row r="149" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A149" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B149" s="20">
         <v>9</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D149" s="19"/>
     </row>
     <row r="150" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A150" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B150" s="19">
         <v>10</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D150" s="19"/>
     </row>
     <row r="151" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A151" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B151" s="19">
         <v>11</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D151" s="19"/>
     </row>
     <row r="152" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A152" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B152" s="19">
         <v>12</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D152" s="19"/>
     </row>
     <row r="153" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A153" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B153" s="19">
         <v>13</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D153" s="19"/>
     </row>
     <row r="154" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A154" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B154" s="20">
         <v>14</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D154" s="19"/>
     </row>
     <row r="155" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A155" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B155" s="19">
         <v>15</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D155" s="19"/>
     </row>
     <row r="156" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A156" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B156" s="20">
         <v>16</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D156" s="19"/>
     </row>
     <row r="157" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A157" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B157" s="20">
         <v>17</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D157" s="19"/>
     </row>
     <row r="158" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A158" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B158" s="19">
         <v>18</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D158" s="19"/>
     </row>
     <row r="159" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A159" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B159" s="19">
         <v>19</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D159" s="19"/>
     </row>
     <row r="160" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A160" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B160" s="19">
         <v>20</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D160" s="19"/>
     </row>
     <row r="161" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A161" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B161" s="19">
         <v>21</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D161" s="19"/>
     </row>
     <row r="162" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A162" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B162" s="19">
         <v>22</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D162" s="19"/>
     </row>
     <row r="163" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A163" s="65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B163" s="20">
         <v>23</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D163" s="19"/>
     </row>
     <row r="164" s="12" customFormat="1" customHeight="1" spans="1:4">
       <c r="A164" s="64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B164" s="66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D164" s="31"/>
     </row>
     <row r="165" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B165" s="19">
         <v>1</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D165" s="19"/>
     </row>
     <row r="166" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B166" s="19">
         <v>2</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D166" s="19"/>
     </row>
     <row r="167" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B167" s="19">
         <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D167" s="19"/>
     </row>
     <row r="168" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B168" s="19">
         <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D168" s="19"/>
     </row>
     <row r="169" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B169" s="19">
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D169" s="19"/>
     </row>
     <row r="170" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B170" s="19">
         <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D170" s="19"/>
     </row>
     <row r="171" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B171" s="19">
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D171" s="19"/>
     </row>
     <row r="172" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B172" s="19">
         <v>8</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D172" s="19"/>
     </row>
     <row r="173" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A173" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B173" s="20">
         <v>9</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D173" s="19"/>
     </row>
     <row r="174" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B174" s="19">
         <v>10</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D174" s="19"/>
     </row>
     <row r="175" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B175" s="19">
         <v>11</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D175" s="19"/>
     </row>
     <row r="176" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B176" s="19">
         <v>12</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D176" s="19"/>
     </row>
     <row r="177" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B177" s="19">
         <v>13</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D177" s="19"/>
     </row>
     <row r="178" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A178" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B178" s="20">
         <v>14</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D178" s="19"/>
     </row>
     <row r="179" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B179" s="19">
         <v>15</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D179" s="19"/>
     </row>
     <row r="180" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B180" s="19">
         <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D180" s="19"/>
     </row>
     <row r="181" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A181" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B181" s="20">
         <v>17</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D181" s="19"/>
     </row>
     <row r="182" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B182" s="19">
         <v>18</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D182" s="19"/>
     </row>
     <row r="183" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B183" s="19">
         <v>19</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D183" s="19"/>
     </row>
     <row r="184" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B184" s="19">
         <v>20</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D184" s="19"/>
     </row>
     <row r="185" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B185" s="19">
         <v>21</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D185" s="19"/>
     </row>
     <row r="186" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B186" s="19">
         <v>22</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D186" s="19"/>
     </row>
     <row r="187" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A187" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B187" s="20">
         <v>23</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D187" s="19"/>
     </row>
     <row r="188" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B188" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D188" s="19"/>
     </row>
     <row r="189" s="10" customFormat="1" customHeight="1" spans="1:4">
       <c r="A189" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B189" s="62">
         <v>1</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D189" s="62"/>
     </row>
     <row r="190" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A190" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B190" s="19">
         <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D190" s="19"/>
     </row>
     <row r="191" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A191" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B191" s="19">
         <v>3</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D191" s="19"/>
     </row>
     <row r="192" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A192" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B192" s="19">
         <v>4</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D192" s="19"/>
     </row>
     <row r="193" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A193" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B193" s="19">
         <v>5</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D193" s="19"/>
     </row>
     <row r="194" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A194" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B194" s="19">
         <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D194" s="19"/>
     </row>
     <row r="195" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A195" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B195" s="19">
         <v>7</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D195" s="19"/>
     </row>
     <row r="196" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A196" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B196" s="19">
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D196" s="19"/>
     </row>
     <row r="197" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A197" s="63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B197" s="19">
         <v>9</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D197" s="19"/>
     </row>
     <row r="198" s="12" customFormat="1" customHeight="1" spans="1:4">
       <c r="A198" s="64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D198" s="31"/>
     </row>
     <row r="199" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B199" s="19">
         <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D199" s="19"/>
     </row>
     <row r="200" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B200" s="19">
         <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D200" s="19"/>
     </row>
     <row r="201" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B201" s="19">
         <v>3</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D201" s="19"/>
     </row>
     <row r="202" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B202" s="19">
         <v>4</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D202" s="19"/>
     </row>
     <row r="203" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B203" s="19">
         <v>5</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D203" s="19"/>
     </row>
     <row r="204" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B204" s="19">
         <v>6</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D204" s="19"/>
     </row>
     <row r="205" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D205" s="19"/>
     </row>
     <row r="206" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A206" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B206" s="35">
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D206" s="35"/>
     </row>
     <row r="207" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A207" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B207" s="35">
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D207" s="35"/>
     </row>
     <row r="208" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A208" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B208" s="35">
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D208" s="35"/>
     </row>
     <row r="209" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B209" s="35">
         <v>4</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D209" s="35"/>
     </row>
     <row r="210" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A210" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B210" s="35">
         <v>5</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D210" s="35"/>
     </row>
     <row r="211" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A211" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B211" s="35">
         <v>6</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D211" s="35"/>
     </row>
     <row r="212" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A212" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B212" s="35">
         <v>7</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D212" s="35"/>
     </row>
     <row r="213" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A213" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D213" s="35"/>
     </row>
     <row r="214" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B214" s="19">
         <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D214" s="19"/>
     </row>
     <row r="215" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B215" s="19">
         <v>2</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D215" s="19"/>
     </row>
     <row r="216" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B216" s="19">
         <v>3</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D216" s="19"/>
     </row>
     <row r="217" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B217" s="19">
         <v>4</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D217" s="19"/>
     </row>
     <row r="218" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B218" s="19">
         <v>5</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D218" s="19"/>
     </row>
     <row r="219" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B219" s="20">
         <v>98</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D219" s="19"/>
     </row>
     <row r="220" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B220" s="19">
         <v>1</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D220" s="19"/>
     </row>
     <row r="221" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B221" s="19">
         <v>2</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D221" s="19"/>
     </row>
     <row r="222" s="2" customFormat="1" customHeight="1" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B222" s="19">
         <v>99</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D222" s="19"/>
     </row>
     <row r="223" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A223" s="68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B223" s="69">
         <v>1</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D223" s="69"/>
     </row>
     <row r="224" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A224" s="65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B224" s="20">
         <v>2</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D224" s="20"/>
     </row>
     <row r="225" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A225" s="65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B225" s="70">
         <v>3</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D225" s="70"/>
     </row>
     <row r="226" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A226" s="68" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B226" s="69">
         <v>1</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D226" s="69"/>
     </row>
     <row r="227" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A227" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B227" s="20">
         <v>2</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D227" s="20"/>
     </row>
     <row r="228" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A228" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B228" s="20">
         <v>3</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D228" s="20"/>
     </row>
     <row r="229" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A229" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B229" s="20">
         <v>4</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D229" s="20"/>
     </row>
     <row r="230" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A230" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B230" s="20">
         <v>5</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D230" s="20"/>
     </row>
     <row r="231" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A231" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B231" s="20">
         <v>6</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D231" s="20"/>
     </row>
     <row r="232" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A232" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B232" s="20">
         <v>7</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D232" s="20"/>
     </row>
     <row r="233" s="15" customFormat="1" customHeight="1" spans="1:4">
       <c r="A233" s="71" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B233" s="72">
         <v>98</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D233" s="73"/>
     </row>
     <row r="234" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B234" s="35">
         <v>1</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D234" s="35"/>
     </row>
     <row r="235" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B235" s="35">
         <v>2</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D235" s="35"/>
     </row>
     <row r="236" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B236" s="35">
         <v>3</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D236" s="35"/>
     </row>
     <row r="237" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A237" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B237" s="35">
         <v>4</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D237" s="35"/>
     </row>
     <row r="238" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A238" s="68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B238" s="69">
         <v>1</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D238" s="69"/>
     </row>
     <row r="239" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A239" s="65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B239" s="70">
         <v>2</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D239" s="70"/>
     </row>
     <row r="240" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A240" s="65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B240" s="70">
         <v>88</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D240" s="70"/>
     </row>
     <row r="241" s="15" customFormat="1" customHeight="1" spans="1:4">
       <c r="A241" s="71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B241" s="73">
         <v>99</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D241" s="73"/>
     </row>
     <row r="242" s="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A242" s="34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B242" s="36">
         <v>1</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D242" s="36"/>
     </row>
     <row r="243" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A243" s="34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B243" s="35">
         <v>2</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D243" s="35"/>
     </row>
     <row r="244" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A244" s="34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B244" s="35">
         <v>88</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D244" s="35"/>
     </row>
     <row r="245" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A245" s="60" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B245" s="61">
         <v>99</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D245" s="61"/>
     </row>
     <row r="246" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A246" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B246" s="35">
         <v>1</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D246" s="35"/>
     </row>
     <row r="247" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A247" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B247" s="35">
         <v>2</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D247" s="35"/>
     </row>
     <row r="248" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A248" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B248" s="35">
         <v>3</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D248" s="35"/>
     </row>
     <row r="249" s="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A249" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B249" s="35">
         <v>4</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D249" s="35"/>
     </row>
     <row r="250" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A250" s="68" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B250" s="69">
         <v>1</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D250" s="69"/>
     </row>
     <row r="251" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A251" s="65" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B251" s="20">
         <v>2</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D251" s="20"/>
     </row>
     <row r="252" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A252" s="65" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B252" s="70">
         <v>99</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D252" s="70"/>
     </row>
     <row r="253" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A253" s="68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B253" s="69">
         <v>1</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D253" s="69"/>
     </row>
     <row r="254" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A254" s="65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B254" s="70">
         <v>2</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D254" s="70"/>
     </row>
     <row r="255" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A255" s="68" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B255" s="69">
         <v>1</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D255" s="69"/>
     </row>
     <row r="256" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A256" s="65" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B256" s="20">
         <v>2</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D256" s="20"/>
     </row>
     <row r="257" s="15" customFormat="1" customHeight="1" spans="1:4">
       <c r="A257" s="71" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B257" s="73">
         <v>3</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D257" s="73"/>
     </row>
     <row r="258" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A258" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="20">
         <v>1</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D258" s="20"/>
     </row>
     <row r="259" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A259" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="20">
         <v>2</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D259" s="20"/>
     </row>
     <row r="260" s="3" customFormat="1" customHeight="1" spans="1:4">
       <c r="A260" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="20">
         <v>3</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D260" s="20"/>
     </row>
     <row r="261" s="13" customFormat="1" customHeight="1" spans="1:4">
       <c r="A261" s="68" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B261" s="69">
         <v>1</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D261" s="69"/>
     </row>
     <row r="262" s="14" customFormat="1" customHeight="1" spans="1:4">
       <c r="A262" s="65" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B262" s="70">
         <v>2</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D262" s="70"/>
     </row>
     <row r="263" s="16" customFormat="1" customHeight="1" spans="1:4">
       <c r="A263" s="74" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B263" s="75">
         <v>1</v>
       </c>
       <c r="C263" s="76" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D263" s="75"/>
     </row>
     <row r="264" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A264" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B264" s="78">
         <v>2</v>
       </c>
       <c r="C264" s="79" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D264" s="78"/>
     </row>
     <row r="265" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A265" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B265" s="78">
         <v>3</v>
       </c>
       <c r="C265" s="79" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D265" s="78"/>
     </row>
     <row r="266" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A266" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B266" s="78">
         <v>4</v>
       </c>
       <c r="C266" s="79" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D266" s="78"/>
     </row>
     <row r="267" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A267" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B267" s="78">
         <v>5</v>
       </c>
       <c r="C267" s="79" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D267" s="78"/>
     </row>
     <row r="268" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A268" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B268" s="78">
         <v>6</v>
       </c>
       <c r="C268" s="79" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D268" s="78"/>
     </row>
     <row r="269" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A269" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B269" s="78">
         <v>7</v>
       </c>
       <c r="C269" s="79" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D269" s="78"/>
     </row>
     <row r="270" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A270" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B270" s="78">
         <v>8</v>
       </c>
       <c r="C270" s="79" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D270" s="78"/>
     </row>
     <row r="271" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A271" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B271" s="78">
         <v>9</v>
       </c>
       <c r="C271" s="79" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D271" s="78"/>
     </row>
     <row r="272" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A272" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B272" s="78">
         <v>10</v>
       </c>
       <c r="C272" s="79" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D272" s="78"/>
     </row>
     <row r="273" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A273" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B273" s="78">
         <v>11</v>
       </c>
       <c r="C273" s="79" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D273" s="78"/>
     </row>
     <row r="274" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A274" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B274" s="78">
         <v>12</v>
       </c>
       <c r="C274" s="79" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D274" s="78"/>
     </row>
     <row r="275" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A275" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B275" s="78">
         <v>13</v>
       </c>
       <c r="C275" s="79" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D275" s="78"/>
     </row>
     <row r="276" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A276" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B276" s="78">
         <v>14</v>
       </c>
       <c r="C276" s="79" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D276" s="78"/>
     </row>
     <row r="277" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A277" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B277" s="78">
         <v>15</v>
       </c>
       <c r="C277" s="79" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D277" s="78"/>
     </row>
     <row r="278" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A278" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B278" s="78">
         <v>16</v>
       </c>
       <c r="C278" s="79" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D278" s="78"/>
     </row>
     <row r="279" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A279" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B279" s="78">
         <v>17</v>
       </c>
       <c r="C279" s="79" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D279" s="78"/>
     </row>
     <row r="280" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A280" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B280" s="78">
         <v>18</v>
       </c>
       <c r="C280" s="79" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D280" s="78"/>
     </row>
     <row r="281" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A281" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B281" s="78">
         <v>19</v>
       </c>
       <c r="C281" s="79" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D281" s="78"/>
     </row>
     <row r="282" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A282" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B282" s="78">
         <v>20</v>
       </c>
       <c r="C282" s="79" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D282" s="78"/>
     </row>
     <row r="283" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A283" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B283" s="78">
         <v>21</v>
       </c>
       <c r="C283" s="79" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D283" s="78"/>
     </row>
     <row r="284" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A284" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B284" s="78">
         <v>22</v>
       </c>
       <c r="C284" s="79" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D284" s="78"/>
     </row>
     <row r="285" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A285" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B285" s="78">
         <v>23</v>
       </c>
       <c r="C285" s="79" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D285" s="78"/>
     </row>
     <row r="286" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A286" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B286" s="78">
         <v>24</v>
       </c>
       <c r="C286" s="79" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D286" s="78"/>
     </row>
     <row r="287" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A287" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B287" s="78">
         <v>25</v>
       </c>
       <c r="C287" s="79" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D287" s="78"/>
     </row>
     <row r="288" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A288" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B288" s="78">
         <v>26</v>
       </c>
       <c r="C288" s="79" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D288" s="78"/>
     </row>
     <row r="289" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A289" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B289" s="78">
         <v>27</v>
       </c>
       <c r="C289" s="79" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D289" s="78"/>
     </row>
     <row r="290" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A290" s="77" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B290" s="78">
         <v>28</v>
       </c>
       <c r="C290" s="79" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D290" s="78"/>
     </row>
     <row r="291" s="18" customFormat="1" customHeight="1" spans="1:4">
       <c r="A291" s="80" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B291" s="81">
         <v>98</v>
       </c>
       <c r="C291" s="82" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D291" s="81"/>
     </row>
@@ -10693,36 +10700,36 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.425" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.7166666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.2833333333333" customWidth="1"/>
-    <col min="3" max="3" width="32.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="32.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D2" s="1">
         <v>20181</v>
